--- a/capiq_data/in_process_data/IQ24766.xlsx
+++ b/capiq_data/in_process_data/IQ24766.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9C17B7-4B88-4237-931D-DE871FC5FF06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3E41D-A8DA-4E3D-9F5E-C935B697E6CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"35177afb-0f29-41cf-93ad-d66241ad91f8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"7a8de685-e0f4-4fc1-8fc8-7b4d6da6bb4e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-54.470999999999997</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>243.75299999999999</v>
       </c>
       <c r="E2">
-        <v>81.478999999999999</v>
+        <v>237.66300000000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>64.182000000000002</v>
       </c>
       <c r="G2">
-        <v>1361.8009999999999</v>
+        <v>471.15199999999999</v>
       </c>
       <c r="H2">
-        <v>10370.084000000001</v>
+        <v>5660.6790000000001</v>
       </c>
       <c r="I2">
-        <v>67.123999999999995</v>
+        <v>74.046000000000006</v>
       </c>
       <c r="J2">
-        <v>5515.8029999999999</v>
+        <v>2457.0450000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>539.46100000000001</v>
+        <v>297.786</v>
       </c>
       <c r="O2">
-        <v>6865.5259999999998</v>
+        <v>2767.3029999999999</v>
       </c>
       <c r="P2">
-        <v>5590.6989999999996</v>
+        <v>2468.223</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-124.432</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1729</v>
+        <v>3300</v>
       </c>
       <c r="T2">
-        <v>3504.558</v>
+        <v>2893.3760000000002</v>
       </c>
       <c r="U2">
-        <v>883.96299999999997</v>
+        <v>82.037999999999997</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>266.63099999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-54.470999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>91.841999999999999</v>
+        <v>-71.507000000000005</v>
       </c>
       <c r="D3">
-        <v>562.69500000000005</v>
+        <v>249.25899999999999</v>
       </c>
       <c r="E3">
-        <v>97.828999999999994</v>
+        <v>267.95800000000003</v>
       </c>
       <c r="F3">
-        <v>427.36700000000002</v>
+        <v>64.016999999999996</v>
       </c>
       <c r="G3">
-        <v>940.72199999999998</v>
+        <v>1520.8610000000001</v>
       </c>
       <c r="H3">
-        <v>10758.749</v>
+        <v>7076.8140000000003</v>
       </c>
       <c r="I3">
-        <v>431.40800000000002</v>
+        <v>160.9</v>
       </c>
       <c r="J3">
-        <v>5387.7280000000001</v>
+        <v>3554.3470000000002</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-126.669</v>
+        <v>-74.838999999999999</v>
       </c>
       <c r="N3">
-        <v>826.40700000000004</v>
+        <v>308.66199999999998</v>
       </c>
       <c r="O3">
-        <v>7249.7330000000002</v>
+        <v>3902.277</v>
       </c>
       <c r="P3">
-        <v>5565.8329999999996</v>
+        <v>3562.7049999999999</v>
       </c>
       <c r="Q3">
-        <v>-521.14</v>
+        <v>909.89800000000002</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3509.0160000000001</v>
+        <v>3174.5369999999998</v>
       </c>
       <c r="U3">
-        <v>362.82299999999998</v>
+        <v>991.93600000000004</v>
       </c>
       <c r="V3">
-        <v>283.81599999999997</v>
+        <v>-24.170999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-137.52600000000001</v>
+        <v>1336.7460000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>37.152000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>91.841999999999999</v>
+        <v>-71.507000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>115.211</v>
+        <v>-103.94</v>
       </c>
       <c r="D4">
-        <v>597.23500000000001</v>
+        <v>246.71100000000001</v>
       </c>
       <c r="E4">
-        <v>99.822999999999993</v>
+        <v>253.899</v>
       </c>
       <c r="F4">
-        <v>446.15800000000002</v>
+        <v>64.114999999999995</v>
       </c>
       <c r="G4">
-        <v>910.72799999999995</v>
+        <v>955.51599999999996</v>
       </c>
       <c r="H4">
-        <v>10973.784</v>
+        <v>7002.3980000000001</v>
       </c>
       <c r="I4">
-        <v>339.93099999999998</v>
+        <v>154.43100000000001</v>
       </c>
       <c r="J4">
-        <v>4919.0680000000002</v>
+        <v>3605.3670000000002</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1309.883</v>
+        <v>312.82</v>
       </c>
       <c r="O4">
-        <v>7373.9960000000001</v>
+        <v>3934.14</v>
       </c>
       <c r="P4">
-        <v>5701.8429999999998</v>
+        <v>3616.288</v>
       </c>
       <c r="Q4">
-        <v>-30.280999999999999</v>
+        <v>-551.09400000000005</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3599.788</v>
+        <v>3068.2579999999998</v>
       </c>
       <c r="U4">
-        <v>332.54199999999997</v>
+        <v>440.84199999999998</v>
       </c>
       <c r="V4">
-        <v>275.52199999999999</v>
+        <v>9.9130000000000003</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>80.146000000000001</v>
+        <v>9.8580000000000005</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>9.5719999999999992</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>115.211</v>
+        <v>-103.94</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-15.701000000000001</v>
+        <v>-124.938</v>
       </c>
       <c r="D5">
-        <v>630.40300000000002</v>
+        <v>273.72899999999998</v>
       </c>
       <c r="E5">
-        <v>100.063</v>
+        <v>272.21600000000001</v>
       </c>
       <c r="F5">
-        <v>461.47</v>
+        <v>73.225999999999999</v>
       </c>
       <c r="G5">
-        <v>809.07899999999995</v>
+        <v>740.19200000000001</v>
       </c>
       <c r="H5">
-        <v>10895.335999999999</v>
+        <v>6918.509</v>
       </c>
       <c r="I5">
-        <v>352.78100000000001</v>
+        <v>171.33099999999999</v>
       </c>
       <c r="J5">
-        <v>4970.5020000000004</v>
+        <v>3575.8180000000002</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1371.328</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="O5">
-        <v>7547.6949999999997</v>
+        <v>3897.0749999999998</v>
       </c>
       <c r="P5">
-        <v>5831.6620000000003</v>
+        <v>3587.9870000000001</v>
       </c>
       <c r="Q5">
-        <v>-155.036</v>
+        <v>-164.74799999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3347.6410000000001</v>
+        <v>3021.4340000000002</v>
       </c>
       <c r="U5">
-        <v>177.506</v>
+        <v>276.09399999999999</v>
       </c>
       <c r="V5">
-        <v>290.66000000000003</v>
+        <v>-8.8030000000000008</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>61.645000000000003</v>
+        <v>71.010000000000005</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-1.913</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-15.701000000000001</v>
+        <v>-124.938</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>205.11</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>653.19899999999996</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>100.61</v>
+        <v>229.065</v>
       </c>
       <c r="F6">
-        <v>487.58100000000002</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>752.88499999999999</v>
+        <v>522.20699999999999</v>
       </c>
       <c r="H6">
-        <v>12242.395</v>
+        <v>6829.723</v>
       </c>
       <c r="I6">
-        <v>215.93100000000001</v>
+        <v>172.07499999999999</v>
       </c>
       <c r="J6">
-        <v>7134.4920000000002</v>
+        <v>3581.875</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>781.49699999999996</v>
+        <v>342.714</v>
       </c>
       <c r="O6">
-        <v>8832.2530000000006</v>
+        <v>3946.59</v>
       </c>
       <c r="P6">
-        <v>7236.308</v>
+        <v>3594.46</v>
       </c>
       <c r="Q6">
-        <v>152.685</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2122</v>
+        <v>3200</v>
       </c>
       <c r="T6">
-        <v>3410.1419999999998</v>
+        <v>2883.1329999999998</v>
       </c>
       <c r="U6">
-        <v>330.19099999999997</v>
+        <v>35.957999999999998</v>
       </c>
       <c r="V6">
-        <v>315.94400000000002</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1081.83</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-17.43</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>205.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>221.30600000000001</v>
+        <v>-634.38900000000001</v>
       </c>
       <c r="D7">
-        <v>696.51700000000005</v>
+        <v>163.58600000000001</v>
       </c>
       <c r="E7">
-        <v>105.12</v>
+        <v>191.119</v>
       </c>
       <c r="F7">
-        <v>525.53200000000004</v>
+        <v>73.218999999999994</v>
       </c>
       <c r="G7">
-        <v>942.55200000000002</v>
+        <v>424.58699999999999</v>
       </c>
       <c r="H7">
-        <v>12638.206</v>
+        <v>6733.4769999999999</v>
       </c>
       <c r="I7">
-        <v>226.28299999999999</v>
+        <v>170.233</v>
       </c>
       <c r="J7">
-        <v>7161.5050000000001</v>
+        <v>3604.1320000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2018.847</v>
+        <v>-99.114000000000004</v>
       </c>
       <c r="N7">
-        <v>939.26700000000005</v>
+        <v>293.94499999999999</v>
       </c>
       <c r="O7">
-        <v>9051.8029999999999</v>
+        <v>3918.3119999999999</v>
       </c>
       <c r="P7">
-        <v>7288.8209999999999</v>
+        <v>3630.5940000000001</v>
       </c>
       <c r="Q7">
-        <v>141.06700000000001</v>
+        <v>-6.3940000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3586.4029999999998</v>
+        <v>2815.165</v>
       </c>
       <c r="U7">
-        <v>471.25799999999998</v>
+        <v>29.564</v>
       </c>
       <c r="V7">
-        <v>402.017</v>
+        <v>-8.0030000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>27.44</v>
+        <v>92.457999999999998</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-8.99</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>221.30600000000001</v>
+        <v>-634.39</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>48.209000000000003</v>
+        <v>-101.169</v>
       </c>
       <c r="D8">
-        <v>697.73400000000004</v>
+        <v>159.125</v>
       </c>
       <c r="E8">
-        <v>99.180999999999997</v>
+        <v>167.27</v>
       </c>
       <c r="F8">
-        <v>525.35</v>
+        <v>80.227000000000004</v>
       </c>
       <c r="G8">
-        <v>889.51700000000005</v>
+        <v>403.31799999999998</v>
       </c>
       <c r="H8">
-        <v>12709.359</v>
+        <v>6110.31</v>
       </c>
       <c r="I8">
-        <v>201.386</v>
+        <v>172.82</v>
       </c>
       <c r="J8">
-        <v>7339.085</v>
+        <v>3584.5259999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>906.49300000000005</v>
+        <v>323.66500000000002</v>
       </c>
       <c r="O8">
-        <v>9223.1689999999999</v>
+        <v>3952.9209999999998</v>
       </c>
       <c r="P8">
-        <v>7466.9520000000002</v>
+        <v>3624.9009999999998</v>
       </c>
       <c r="Q8">
-        <v>10.679</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3486.19</v>
+        <v>2157.3890000000001</v>
       </c>
       <c r="U8">
-        <v>481.93700000000001</v>
+        <v>29.471</v>
       </c>
       <c r="V8">
-        <v>360.858</v>
+        <v>40.475000000000001</v>
       </c>
       <c r="W8">
-        <v>-82.881</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>142.85</v>
+        <v>12.205</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>3.7930000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>48.209000000000003</v>
+        <v>-101.16800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>232.089</v>
+        <v>-353.87700000000001</v>
       </c>
       <c r="D9">
-        <v>713.33500000000004</v>
+        <v>174.946</v>
       </c>
       <c r="E9">
-        <v>148.80699999999999</v>
+        <v>152.69900000000001</v>
       </c>
       <c r="F9">
-        <v>528.43100000000004</v>
+        <v>83.281000000000006</v>
       </c>
       <c r="G9">
-        <v>872.78300000000002</v>
+        <v>353.54500000000002</v>
       </c>
       <c r="H9">
-        <v>12961.304</v>
+        <v>5730.5990000000002</v>
       </c>
       <c r="I9">
-        <v>87.38</v>
+        <v>148.78100000000001</v>
       </c>
       <c r="J9">
-        <v>7361.8090000000002</v>
+        <v>3569.444</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>850.92499999999995</v>
+        <v>314.536</v>
       </c>
       <c r="O9">
-        <v>9275.3220000000001</v>
+        <v>3924.5149999999999</v>
       </c>
       <c r="P9">
-        <v>7492.018</v>
+        <v>3623.1289999999999</v>
       </c>
       <c r="Q9">
-        <v>-99.625</v>
+        <v>35.389000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3685.982</v>
+        <v>1806.0840000000001</v>
       </c>
       <c r="U9">
-        <v>382.31200000000001</v>
+        <v>64.86</v>
       </c>
       <c r="V9">
-        <v>353.67200000000003</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="W9">
-        <v>-86.935000000000002</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-58.195</v>
+        <v>43.646000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>33.563000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>232.089</v>
+        <v>-353.87700000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>135.679</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>768.37400000000002</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>176.15</v>
+        <v>86.843999999999994</v>
       </c>
       <c r="F10">
-        <v>574.16800000000001</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>830.24900000000002</v>
+        <v>590.77599999999995</v>
       </c>
       <c r="H10">
-        <v>14089.429</v>
+        <v>5662.2030000000004</v>
       </c>
       <c r="I10">
-        <v>89.578000000000003</v>
+        <v>109.748</v>
       </c>
       <c r="J10">
-        <v>8698.7870000000003</v>
+        <v>3178.6559999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>632.178</v>
+        <v>686.27800000000002</v>
       </c>
       <c r="O10">
-        <v>10405.248</v>
+        <v>3906.3130000000001</v>
       </c>
       <c r="P10">
-        <v>8758.8179999999993</v>
+        <v>3448.5140000000001</v>
       </c>
       <c r="Q10">
-        <v>-13.694000000000001</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>2432</v>
+        <v>1900</v>
       </c>
       <c r="T10">
-        <v>3684.181</v>
+        <v>1755.89</v>
       </c>
       <c r="U10">
-        <v>368.61799999999999</v>
+        <v>127.292</v>
       </c>
       <c r="V10">
-        <v>297.84399999999999</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-185.75800000000001</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1058.271</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-5.99</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>135.679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>171.40700000000001</v>
+        <v>-97.007000000000005</v>
       </c>
       <c r="D11">
-        <v>802.72799999999995</v>
+        <v>161.46700000000001</v>
       </c>
       <c r="E11">
-        <v>145.446</v>
+        <v>93.619</v>
       </c>
       <c r="F11">
-        <v>600.96199999999999</v>
+        <v>88.278999999999996</v>
       </c>
       <c r="G11">
-        <v>890.61199999999997</v>
+        <v>660.37</v>
       </c>
       <c r="H11">
-        <v>14463.74</v>
+        <v>5722.8969999999999</v>
       </c>
       <c r="I11">
-        <v>86.769000000000005</v>
+        <v>109.98399999999999</v>
       </c>
       <c r="J11">
-        <v>8797.1650000000009</v>
+        <v>3300.6370000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-2966.9780000000001</v>
+        <v>-240.595</v>
       </c>
       <c r="N11">
-        <v>739.12400000000002</v>
+        <v>662.62300000000005</v>
       </c>
       <c r="O11">
-        <v>10682.218000000001</v>
+        <v>3996.7379999999998</v>
       </c>
       <c r="P11">
-        <v>8854.768</v>
+        <v>3585.9119999999998</v>
       </c>
       <c r="Q11">
-        <v>73.087999999999994</v>
+        <v>-25.881</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3781.5219999999999</v>
+        <v>1726.1590000000001</v>
       </c>
       <c r="U11">
-        <v>441.70600000000002</v>
+        <v>101.411</v>
       </c>
       <c r="V11">
-        <v>394.036</v>
+        <v>7.0590000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>34.628999999999998</v>
+        <v>-56.957000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>171.40700000000001</v>
+        <v>-97.007000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>99.820999999999998</v>
+        <v>-113.131</v>
       </c>
       <c r="D12">
-        <v>808.83</v>
+        <v>175.28200000000001</v>
       </c>
       <c r="E12">
-        <v>166.73599999999999</v>
+        <v>75.94</v>
       </c>
       <c r="F12">
-        <v>603.12099999999998</v>
+        <v>95.897000000000006</v>
       </c>
       <c r="G12">
-        <v>931.79399999999998</v>
+        <v>585.14400000000001</v>
       </c>
       <c r="H12">
-        <v>14339.394</v>
+        <v>5576.2520000000004</v>
       </c>
       <c r="I12">
-        <v>91.021000000000001</v>
+        <v>92.421999999999997</v>
       </c>
       <c r="J12">
-        <v>8799.3369999999995</v>
+        <v>3282.5889999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>781.04</v>
+        <v>561.31799999999998</v>
       </c>
       <c r="O12">
-        <v>10719.527</v>
+        <v>3873.7289999999998</v>
       </c>
       <c r="P12">
-        <v>8856.6869999999999</v>
+        <v>3516.835</v>
       </c>
       <c r="Q12">
-        <v>6.7409999999999997</v>
+        <v>6.1859999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3619.8670000000002</v>
+        <v>1702.5229999999999</v>
       </c>
       <c r="U12">
-        <v>448.447</v>
+        <v>107.59699999999999</v>
       </c>
       <c r="V12">
-        <v>390.48500000000001</v>
+        <v>43.527999999999999</v>
       </c>
       <c r="W12">
-        <v>-102.98399999999999</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-129.489</v>
+        <v>-17.489999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1.403</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>99.820999999999998</v>
+        <v>-113.131</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>180.12299999999999</v>
+        <v>-58.290999999999997</v>
       </c>
       <c r="D13">
-        <v>807.88</v>
+        <v>186.874</v>
       </c>
       <c r="E13">
-        <v>180.482</v>
+        <v>72.435000000000002</v>
       </c>
       <c r="F13">
-        <v>607.05100000000004</v>
+        <v>100.53400000000001</v>
       </c>
       <c r="G13">
-        <v>4714.6549999999997</v>
+        <v>608.154</v>
       </c>
       <c r="H13">
-        <v>18181.32</v>
+        <v>5590.3069999999998</v>
       </c>
       <c r="I13">
-        <v>90.844999999999999</v>
+        <v>92.034000000000006</v>
       </c>
       <c r="J13">
-        <v>12580.120999999999</v>
+        <v>3304.866</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>823.31899999999996</v>
+        <v>482.26799999999997</v>
       </c>
       <c r="O13">
-        <v>14569.403</v>
+        <v>3815.605</v>
       </c>
       <c r="P13">
-        <v>12647.397000000001</v>
+        <v>3490.598</v>
       </c>
       <c r="Q13">
-        <v>3591.9059999999999</v>
+        <v>-41.466000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3611.9169999999999</v>
+        <v>1774.702</v>
       </c>
       <c r="U13">
-        <v>4040.3530000000001</v>
+        <v>66.131</v>
       </c>
       <c r="V13">
-        <v>359.92200000000003</v>
+        <v>29.437999999999999</v>
       </c>
       <c r="W13">
-        <v>-106.727</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>3589.6190000000001</v>
+        <v>-9.0630000000000006</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-13.432</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>180.12299999999999</v>
+        <v>-58.290999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>99.981999999999999</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>941.96900000000005</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>176.577</v>
+        <v>57.734999999999999</v>
       </c>
       <c r="F14">
-        <v>690.4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>967.47500000000002</v>
+        <v>416.65300000000002</v>
       </c>
       <c r="H14">
-        <v>20283.665000000001</v>
+        <v>5290.6540000000005</v>
       </c>
       <c r="I14">
-        <v>172.93799999999999</v>
+        <v>103.86799999999999</v>
       </c>
       <c r="J14">
-        <v>14410.331</v>
+        <v>3283.1039999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>932.66300000000001</v>
+        <v>295.27699999999999</v>
       </c>
       <c r="O14">
-        <v>16693.625</v>
+        <v>3661.877</v>
       </c>
       <c r="P14">
-        <v>14480.463</v>
+        <v>3359.7310000000002</v>
       </c>
       <c r="Q14">
-        <v>-3746.777</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2716</v>
+        <v>1070</v>
       </c>
       <c r="T14">
-        <v>3590.04</v>
+        <v>1628.777</v>
       </c>
       <c r="U14">
-        <v>293.57600000000002</v>
+        <v>105.465</v>
       </c>
       <c r="V14">
-        <v>454.60399999999998</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-224.976</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>30.806000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>16.782</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>99.981999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>202.499</v>
+        <v>-48.238</v>
       </c>
       <c r="D15">
-        <v>984.08900000000006</v>
+        <v>168.791</v>
       </c>
       <c r="E15">
-        <v>264.27</v>
+        <v>61.691000000000003</v>
       </c>
       <c r="F15">
-        <v>723.32</v>
+        <v>106.354</v>
       </c>
       <c r="G15">
-        <v>1008.551</v>
+        <v>334.37400000000002</v>
       </c>
       <c r="H15">
-        <v>20417.406999999999</v>
+        <v>5153.9279999999999</v>
       </c>
       <c r="I15">
-        <v>115.726</v>
+        <v>100.877</v>
       </c>
       <c r="J15">
-        <v>14010.847</v>
+        <v>3216.627</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.17199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-916.63199999999995</v>
+        <v>-307.70400000000001</v>
       </c>
       <c r="N15">
-        <v>1275.0050000000001</v>
+        <v>254.392</v>
       </c>
       <c r="O15">
-        <v>16715.802</v>
+        <v>3562.7979999999998</v>
       </c>
       <c r="P15">
-        <v>14336.017</v>
+        <v>3299.2460000000001</v>
       </c>
       <c r="Q15">
-        <v>39.863</v>
+        <v>-6.7670000000000003</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3701.605</v>
+        <v>1591.13</v>
       </c>
       <c r="U15">
-        <v>333.43900000000002</v>
+        <v>98.697999999999993</v>
       </c>
       <c r="V15">
-        <v>476.58199999999999</v>
+        <v>31.716000000000001</v>
       </c>
       <c r="W15">
-        <v>-0.55400000000000005</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-152.90100000000001</v>
+        <v>-32.51</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-13.035</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>202.499</v>
+        <v>-48.238</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>234.43100000000001</v>
+        <v>-65.197000000000003</v>
       </c>
       <c r="D16">
-        <v>1031.4570000000001</v>
+        <v>172.292</v>
       </c>
       <c r="E16">
-        <v>212.483</v>
+        <v>60.258000000000003</v>
       </c>
       <c r="F16">
-        <v>759.18200000000002</v>
+        <v>110.627</v>
       </c>
       <c r="G16">
-        <v>983.14700000000005</v>
+        <v>313.67</v>
       </c>
       <c r="H16">
-        <v>20847.737000000001</v>
+        <v>5120.3950000000004</v>
       </c>
       <c r="I16">
-        <v>132.73400000000001</v>
+        <v>104.285</v>
       </c>
       <c r="J16">
-        <v>12750.334999999999</v>
+        <v>3260.3220000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2243.2460000000001</v>
+        <v>197.864</v>
       </c>
       <c r="O16">
-        <v>16439.573</v>
+        <v>3569.9279999999999</v>
       </c>
       <c r="P16">
-        <v>13976.326999999999</v>
+        <v>3266.817</v>
       </c>
       <c r="Q16">
-        <v>-50.48</v>
+        <v>99.158000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4408.1639999999998</v>
+        <v>1550.4670000000001</v>
       </c>
       <c r="U16">
-        <v>282.959</v>
+        <v>197.85599999999999</v>
       </c>
       <c r="V16">
-        <v>595.79999999999995</v>
+        <v>73.674000000000007</v>
       </c>
       <c r="W16">
-        <v>-126.715</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-96.331000000000003</v>
+        <v>-131.39500000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>19.138000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>234.43100000000001</v>
+        <v>-65.197000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>207.59299999999999</v>
+        <v>-60.122</v>
       </c>
       <c r="D17">
-        <v>1038.1880000000001</v>
+        <v>180.881</v>
       </c>
       <c r="E17">
-        <v>225.989</v>
+        <v>58.256</v>
       </c>
       <c r="F17">
-        <v>753.98599999999999</v>
+        <v>115.90900000000001</v>
       </c>
       <c r="G17">
-        <v>967.93</v>
+        <v>245.12899999999999</v>
       </c>
       <c r="H17">
-        <v>20596.615000000002</v>
+        <v>5021.21</v>
       </c>
       <c r="I17">
-        <v>111.001</v>
+        <v>104.833</v>
       </c>
       <c r="J17">
-        <v>12974.879000000001</v>
+        <v>3211.6350000000002</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1937.9179999999999</v>
+        <v>175.87100000000001</v>
       </c>
       <c r="O17">
-        <v>16411.300999999999</v>
+        <v>3502.9259999999999</v>
       </c>
       <c r="P17">
-        <v>13935.34</v>
+        <v>3218.357</v>
       </c>
       <c r="Q17">
-        <v>12.654</v>
+        <v>-71.022999999999996</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4185.3140000000003</v>
+        <v>1518.2840000000001</v>
       </c>
       <c r="U17">
-        <v>295.613</v>
+        <v>126.833</v>
       </c>
       <c r="V17">
-        <v>497.22399999999999</v>
+        <v>43.773000000000003</v>
       </c>
       <c r="W17">
-        <v>-142.78200000000001</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-212.60499999999999</v>
+        <v>-97.347999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-13.393000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>207.59299999999999</v>
+        <v>-60.122</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>180.387</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1046.3140000000001</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>224.42599999999999</v>
+        <v>38.634</v>
       </c>
       <c r="F18">
-        <v>769.29499999999996</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>951.56500000000005</v>
+        <v>309.03699999999998</v>
       </c>
       <c r="H18">
-        <v>21263.564999999999</v>
+        <v>5107.6959999999999</v>
       </c>
       <c r="I18">
-        <v>90.366</v>
+        <v>119.286</v>
       </c>
       <c r="J18">
-        <v>13642.955</v>
+        <v>3155.2280000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1929.5360000000001</v>
+        <v>334.11500000000001</v>
       </c>
       <c r="O18">
-        <v>17210.213</v>
+        <v>3610.848</v>
       </c>
       <c r="P18">
-        <v>14540.341</v>
+        <v>3293.614</v>
       </c>
       <c r="Q18">
-        <v>17.879000000000001</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2974</v>
+        <v>726</v>
       </c>
       <c r="T18">
-        <v>4053.3519999999999</v>
+        <v>1496.848</v>
       </c>
       <c r="U18">
-        <v>313.49200000000002</v>
+        <v>215.55699999999999</v>
       </c>
       <c r="V18">
-        <v>564.98299999999995</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-150.59299999999999</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>327.24599999999998</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>46.805</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>180.387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>193.31700000000001</v>
+        <v>-32.378999999999998</v>
       </c>
       <c r="D19">
-        <v>1079.19</v>
+        <v>184.35499999999999</v>
       </c>
       <c r="E19">
-        <v>202.547</v>
+        <v>30.423999999999999</v>
       </c>
       <c r="F19">
-        <v>814.55</v>
+        <v>134.69800000000001</v>
       </c>
       <c r="G19">
-        <v>911.42499999999995</v>
+        <v>198.52</v>
       </c>
       <c r="H19">
-        <v>25930.194</v>
+        <v>4924.8999999999996</v>
       </c>
       <c r="I19">
-        <v>72.512</v>
+        <v>117.307</v>
       </c>
       <c r="J19">
-        <v>14932.237999999999</v>
+        <v>3141.835</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-2490.7710000000002</v>
+        <v>-169.08600000000001</v>
       </c>
       <c r="N19">
-        <v>1731.414</v>
+        <v>198.024</v>
       </c>
       <c r="O19">
-        <v>18498.555</v>
+        <v>3466.5990000000002</v>
       </c>
       <c r="P19">
-        <v>15721.39</v>
+        <v>3147.1849999999999</v>
       </c>
       <c r="Q19">
-        <v>9.9079999999999995</v>
+        <v>-92.76</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7431.6390000000001</v>
+        <v>1458.3009999999999</v>
       </c>
       <c r="U19">
-        <v>323.39999999999998</v>
+        <v>122.797</v>
       </c>
       <c r="V19">
-        <v>509.93</v>
+        <v>92.555000000000007</v>
       </c>
       <c r="W19">
-        <v>-159.91200000000001</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>4760.1270000000004</v>
+        <v>-161.83199999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-9.8729999999999993</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>193.31700000000001</v>
+        <v>-32.378999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>156.05600000000001</v>
+        <v>-36.151000000000003</v>
       </c>
       <c r="D20">
-        <v>1174.375</v>
+        <v>188.06</v>
       </c>
       <c r="E20">
-        <v>242.32400000000001</v>
+        <v>23.117999999999999</v>
       </c>
       <c r="F20">
-        <v>851.91700000000003</v>
+        <v>139.37100000000001</v>
       </c>
       <c r="G20">
-        <v>900.18799999999999</v>
+        <v>156.49600000000001</v>
       </c>
       <c r="H20">
-        <v>26469.724999999999</v>
+        <v>4825.6629999999996</v>
       </c>
       <c r="I20">
-        <v>82.85</v>
+        <v>115.887</v>
       </c>
       <c r="J20">
-        <v>16185.878000000001</v>
+        <v>2991.9250000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1036.6279999999999</v>
+        <v>272.19799999999998</v>
       </c>
       <c r="O20">
-        <v>19096.566999999999</v>
+        <v>3393.569</v>
       </c>
       <c r="P20">
-        <v>16224.691999999999</v>
+        <v>3079.88</v>
       </c>
       <c r="Q20">
-        <v>-48.698</v>
+        <v>-37.174999999999997</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7373.1580000000004</v>
+        <v>1432.0940000000001</v>
       </c>
       <c r="U20">
-        <v>274.702</v>
+        <v>85.622</v>
       </c>
       <c r="V20">
-        <v>526.53</v>
+        <v>72.453999999999994</v>
       </c>
       <c r="W20">
-        <v>-200.93899999999999</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>230.09</v>
+        <v>-88.17</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-24.696000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>156.05600000000001</v>
+        <v>-36.151000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>102.999</v>
+        <v>-22.08</v>
       </c>
       <c r="D21">
-        <v>1237.9100000000001</v>
+        <v>264.74599999999998</v>
       </c>
       <c r="E21">
-        <v>238.03200000000001</v>
+        <v>37.552999999999997</v>
       </c>
       <c r="F21">
-        <v>872.52099999999996</v>
+        <v>192.60599999999999</v>
       </c>
       <c r="G21">
-        <v>925.87</v>
+        <v>243.578</v>
       </c>
       <c r="H21">
-        <v>26926.788</v>
+        <v>8785.6589999999997</v>
       </c>
       <c r="I21">
-        <v>99.59</v>
+        <v>169.78100000000001</v>
       </c>
       <c r="J21">
-        <v>16981.556</v>
+        <v>3637.9160000000002</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1369.508</v>
+        <v>313.24099999999999</v>
       </c>
       <c r="O21">
-        <v>20242.585999999999</v>
+        <v>4141.3289999999997</v>
       </c>
       <c r="P21">
-        <v>17027.407999999999</v>
+        <v>3640.1570000000002</v>
       </c>
       <c r="Q21">
-        <v>12.702</v>
+        <v>23.536999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6684.2020000000002</v>
+        <v>4644.33</v>
       </c>
       <c r="U21">
-        <v>287.404</v>
+        <v>109.15900000000001</v>
       </c>
       <c r="V21">
-        <v>507.15499999999997</v>
+        <v>95.194999999999993</v>
       </c>
       <c r="W21">
-        <v>-213.02699999999999</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>642.23099999999999</v>
+        <v>-81.215999999999994</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>25.463000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>102.999</v>
+        <v>-22.08</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>232.702</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1280.0409999999999</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>261.52699999999999</v>
+        <v>36.994999999999997</v>
       </c>
       <c r="F22">
-        <v>923.66</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>996.46799999999996</v>
+        <v>225.87799999999999</v>
       </c>
       <c r="H22">
-        <v>26904.272000000001</v>
+        <v>8786.8539999999994</v>
       </c>
       <c r="I22">
-        <v>96.713999999999999</v>
+        <v>122.074</v>
       </c>
       <c r="J22">
-        <v>17068.807000000001</v>
+        <v>3451.2759999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1200.029</v>
+        <v>456.60899999999998</v>
       </c>
       <c r="O22">
-        <v>20191.454000000002</v>
+        <v>4235.2389999999996</v>
       </c>
       <c r="P22">
-        <v>17119.008999999998</v>
+        <v>3613.4290000000001</v>
       </c>
       <c r="Q22">
-        <v>33.281999999999996</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>3371</v>
+        <v>904</v>
       </c>
       <c r="T22">
-        <v>6712.8180000000002</v>
+        <v>4551.6149999999998</v>
       </c>
       <c r="U22">
-        <v>320.68599999999998</v>
+        <v>112.70099999999999</v>
       </c>
       <c r="V22">
-        <v>639.43700000000001</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-221.62100000000001</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-43.347000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>18.61</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>232.702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>275.15899999999999</v>
+        <v>-1.9370000000000001</v>
       </c>
       <c r="D23">
-        <v>1289.047</v>
+        <v>320.40899999999999</v>
       </c>
       <c r="E23">
-        <v>251.01900000000001</v>
+        <v>33.216000000000001</v>
       </c>
       <c r="F23">
-        <v>937.60199999999998</v>
+        <v>238.797</v>
       </c>
       <c r="G23">
-        <v>1036.5160000000001</v>
+        <v>227.41399999999999</v>
       </c>
       <c r="H23">
-        <v>27064.314999999999</v>
+        <v>8688.0519999999997</v>
       </c>
       <c r="I23">
-        <v>94.051000000000002</v>
+        <v>154.584</v>
       </c>
       <c r="J23">
-        <v>16884.241999999998</v>
+        <v>3332.08</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-8.6359999999999992</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-1388.6130000000001</v>
+        <v>-182.024</v>
       </c>
       <c r="N23">
-        <v>1198.1559999999999</v>
+        <v>580.39700000000005</v>
       </c>
       <c r="O23">
-        <v>20064.099999999999</v>
+        <v>4250.0550000000003</v>
       </c>
       <c r="P23">
-        <v>17022.095000000001</v>
+        <v>3609.5509999999999</v>
       </c>
       <c r="Q23">
-        <v>15.717000000000001</v>
+        <v>-27.128</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7000.2150000000001</v>
+        <v>4437.9970000000003</v>
       </c>
       <c r="U23">
-        <v>336.40300000000002</v>
+        <v>85.572999999999993</v>
       </c>
       <c r="V23">
-        <v>563.51199999999994</v>
+        <v>151.696</v>
       </c>
       <c r="W23">
-        <v>-236.76499999999999</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-366.06400000000002</v>
+        <v>-151.31</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1.1839999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>275.15899999999999</v>
+        <v>-1.9370000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>187.55</v>
+        <v>7.6639999999999997</v>
       </c>
       <c r="D24">
-        <v>1442.2270000000001</v>
+        <v>325.863</v>
       </c>
       <c r="E24">
-        <v>344.54599999999999</v>
+        <v>30.782</v>
       </c>
       <c r="F24">
-        <v>982.51599999999996</v>
+        <v>240.126</v>
       </c>
       <c r="G24">
-        <v>1320.6</v>
+        <v>288.71499999999997</v>
       </c>
       <c r="H24">
-        <v>30740.198</v>
+        <v>8607.6740000000009</v>
       </c>
       <c r="I24">
-        <v>120.586</v>
+        <v>157.56</v>
       </c>
       <c r="J24">
-        <v>18403.012999999999</v>
+        <v>3325.3020000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1655.6310000000001</v>
+        <v>559.404</v>
       </c>
       <c r="O24">
-        <v>22814.815999999999</v>
+        <v>4229.4269999999997</v>
       </c>
       <c r="P24">
-        <v>18717.076000000001</v>
+        <v>3602.7280000000001</v>
       </c>
       <c r="Q24">
-        <v>74.135000000000005</v>
+        <v>4.8810000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7925.3819999999996</v>
+        <v>4378.2470000000003</v>
       </c>
       <c r="U24">
-        <v>410.53800000000001</v>
+        <v>90.453999999999994</v>
       </c>
       <c r="V24">
-        <v>747.80399999999997</v>
+        <v>140.94499999999999</v>
       </c>
       <c r="W24">
-        <v>-243.36199999999999</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>696.32299999999998</v>
+        <v>-95.165999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1.417</v>
+        <v>14.74</v>
       </c>
       <c r="AA24">
-        <v>187.55</v>
+        <v>7.6639999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>264.50900000000001</v>
+        <v>3.472</v>
       </c>
       <c r="D25">
-        <v>1514.845</v>
+        <v>333.46699999999998</v>
       </c>
       <c r="E25">
-        <v>333.83499999999998</v>
+        <v>33.505000000000003</v>
       </c>
       <c r="F25">
-        <v>1023.6079999999999</v>
+        <v>245.905</v>
       </c>
       <c r="G25">
-        <v>1370.7560000000001</v>
+        <v>400.79300000000001</v>
       </c>
       <c r="H25">
-        <v>30655.526999999998</v>
+        <v>8605.73</v>
       </c>
       <c r="I25">
-        <v>105.551</v>
+        <v>159.982</v>
       </c>
       <c r="J25">
-        <v>18436.144</v>
+        <v>3309.5639999999999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1519.5530000000001</v>
+        <v>554.43299999999999</v>
       </c>
       <c r="O25">
-        <v>22781.044000000002</v>
+        <v>4218.0879999999997</v>
       </c>
       <c r="P25">
-        <v>18679.135999999999</v>
+        <v>3563.44</v>
       </c>
       <c r="Q25">
-        <v>119.82</v>
+        <v>116.748</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7874.4830000000002</v>
+        <v>4387.6419999999998</v>
       </c>
       <c r="U25">
-        <v>530.35799999999995</v>
+        <v>207.202</v>
       </c>
       <c r="V25">
-        <v>667.11500000000001</v>
+        <v>182.52799999999999</v>
       </c>
       <c r="W25">
-        <v>-252.18299999999999</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-303.53199999999998</v>
+        <v>-36.924999999999997</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.8580000000000001</v>
+        <v>11.948</v>
       </c>
       <c r="AA25">
-        <v>264.50900000000001</v>
+        <v>3.472</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>229.18199999999999</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1539.5809999999999</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>366.1</v>
+        <v>29.367999999999999</v>
       </c>
       <c r="F26">
-        <v>1051.5740000000001</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1685.9</v>
+        <v>463.036</v>
       </c>
       <c r="H26">
-        <v>30879.200000000001</v>
+        <v>8613.2189999999991</v>
       </c>
       <c r="I26">
-        <v>118.7</v>
+        <v>130.13399999999999</v>
       </c>
       <c r="J26">
-        <v>18294.7</v>
+        <v>3289.1089999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1631.3</v>
+        <v>569.62900000000002</v>
       </c>
       <c r="O26">
-        <v>22811.7</v>
+        <v>4224.7120000000004</v>
       </c>
       <c r="P26">
-        <v>18533.5</v>
+        <v>3543.0160000000001</v>
       </c>
       <c r="Q26">
-        <v>263.928</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>4507</v>
+        <v>995</v>
       </c>
       <c r="T26">
-        <v>8067.5</v>
+        <v>4388.5069999999996</v>
       </c>
       <c r="U26">
-        <v>787.2</v>
+        <v>281.26400000000001</v>
       </c>
       <c r="V26">
-        <v>723.26900000000001</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-260.89</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-126.027</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>7.8410000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>229.18199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>316.10000000000002</v>
+        <v>22.228000000000002</v>
       </c>
       <c r="D27">
-        <v>1616.2</v>
+        <v>352.47399999999999</v>
       </c>
       <c r="E27">
-        <v>448.73200000000003</v>
+        <v>33.734000000000002</v>
       </c>
       <c r="F27">
-        <v>1123.5</v>
+        <v>265.19099999999997</v>
       </c>
       <c r="G27">
-        <v>1705.893</v>
+        <v>245.29499999999999</v>
       </c>
       <c r="H27">
-        <v>32057.388999999999</v>
+        <v>8319.9120000000003</v>
       </c>
       <c r="I27">
-        <v>109.42400000000001</v>
+        <v>153.78700000000001</v>
       </c>
       <c r="J27">
-        <v>17208.732</v>
+        <v>3570.2930000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1695.2</v>
+        <v>-225.84899999999999</v>
       </c>
       <c r="N27">
-        <v>3209.058</v>
+        <v>306.31799999999998</v>
       </c>
       <c r="O27">
-        <v>23542.561000000002</v>
+        <v>4322.8919999999998</v>
       </c>
       <c r="P27">
-        <v>18916.062000000002</v>
+        <v>3571.9360000000001</v>
       </c>
       <c r="Q27">
-        <v>-78.2</v>
+        <v>-234.113</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>8514.8279999999995</v>
+        <v>3997.02</v>
       </c>
       <c r="U27">
-        <v>712.77800000000002</v>
+        <v>47.151000000000003</v>
       </c>
       <c r="V27">
-        <v>678.2</v>
+        <v>171.387</v>
       </c>
       <c r="W27">
-        <v>-277.2</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>157.9</v>
+        <v>-373.154</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>3.8</v>
+        <v>9.0950000000000006</v>
       </c>
       <c r="AA27">
-        <v>316.10000000000002</v>
+        <v>22.228000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1662.5</v>
+        <v>358.423</v>
       </c>
       <c r="E28">
-        <v>453.89100000000002</v>
+        <v>45.414999999999999</v>
       </c>
       <c r="F28">
-        <v>1145.3</v>
+        <v>268.38099999999997</v>
       </c>
       <c r="G28">
-        <v>1801.7470000000001</v>
+        <v>397.262</v>
       </c>
       <c r="H28">
-        <v>32138.21</v>
+        <v>8384.0910000000003</v>
       </c>
       <c r="I28">
-        <v>102.726</v>
+        <v>186.078</v>
       </c>
       <c r="J28">
-        <v>17509.937000000002</v>
+        <v>3975.299</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3278.9110000000001</v>
+        <v>315.05900000000003</v>
       </c>
       <c r="O28">
-        <v>23937.227999999999</v>
+        <v>4743.866</v>
       </c>
       <c r="P28">
-        <v>19241.972000000002</v>
+        <v>3976.9650000000001</v>
       </c>
       <c r="Q28">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8200.982</v>
+        <v>3640.2249999999999</v>
       </c>
       <c r="U28">
-        <v>770.024</v>
+        <v>213.02099999999999</v>
       </c>
       <c r="V28">
-        <v>794.6</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-291.3</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-448.5</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>367</v>
+        <v>-19.991</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>317.3</v>
+        <v>59.628</v>
       </c>
       <c r="D29">
-        <v>1680.7</v>
+        <v>367.58499999999998</v>
       </c>
       <c r="E29">
-        <v>617.76900000000001</v>
+        <v>46.426000000000002</v>
       </c>
       <c r="F29">
-        <v>1160.9000000000001</v>
+        <v>278.80799999999999</v>
       </c>
       <c r="G29">
-        <v>1962.5419999999999</v>
+        <v>280.43900000000002</v>
       </c>
       <c r="H29">
-        <v>32319.326000000001</v>
+        <v>8203.4380000000001</v>
       </c>
       <c r="I29">
-        <v>119.745</v>
+        <v>184.06399999999999</v>
       </c>
       <c r="J29">
-        <v>18581.381000000001</v>
+        <v>4025.145</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2260.2359999999999</v>
+        <v>338.56200000000001</v>
       </c>
       <c r="O29">
-        <v>24062.92</v>
+        <v>4824.3280000000004</v>
       </c>
       <c r="P29">
-        <v>19268.762999999999</v>
+        <v>4026.915</v>
       </c>
       <c r="Q29">
-        <v>41.4</v>
+        <v>-130.286</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8256.4060000000009</v>
+        <v>3379.11</v>
       </c>
       <c r="U29">
-        <v>799.46699999999998</v>
+        <v>82.734999999999999</v>
       </c>
       <c r="V29">
-        <v>663.8</v>
+        <v>181.637</v>
       </c>
       <c r="W29">
-        <v>-293.5</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-323.3</v>
+        <v>-286.09399999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>2.9</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="AA29">
-        <v>317.3</v>
+        <v>59.628</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>238.5</v>
+        <v>-5.5490000000000004</v>
       </c>
       <c r="D30">
-        <v>1704.5</v>
+        <v>378.11200000000002</v>
       </c>
       <c r="E30">
-        <v>621.5</v>
+        <v>40.316000000000003</v>
       </c>
       <c r="F30">
-        <v>1177.5999999999999</v>
+        <v>284.59199999999998</v>
       </c>
       <c r="G30">
-        <v>2037.1</v>
+        <v>238.45</v>
       </c>
       <c r="H30">
-        <v>33214.300000000003</v>
+        <v>8130.4570000000003</v>
       </c>
       <c r="I30">
-        <v>142.9</v>
+        <v>175.464</v>
       </c>
       <c r="J30">
-        <v>19264.8</v>
+        <v>4283.4669999999996</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2512.1</v>
+        <v>317.37799999999999</v>
       </c>
       <c r="O30">
-        <v>25260</v>
+        <v>5105.0230000000001</v>
       </c>
       <c r="P30">
-        <v>20205.099999999999</v>
+        <v>4285.2839999999997</v>
       </c>
       <c r="Q30">
-        <v>0.2</v>
+        <v>-49.612000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>4752</v>
+        <v>1124</v>
       </c>
       <c r="T30">
-        <v>7954.3</v>
+        <v>3025.4340000000002</v>
       </c>
       <c r="U30">
-        <v>802.1</v>
+        <v>33.122999999999998</v>
       </c>
       <c r="V30">
-        <v>789</v>
+        <v>128.87799999999999</v>
       </c>
       <c r="W30">
-        <v>-302.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>500.9</v>
+        <v>-109.676</v>
       </c>
       <c r="Y30">
-        <v>165.5</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>4.5999999999999996</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="AA30">
-        <v>238.5</v>
+        <v>-5.5490000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>285.2</v>
+        <v>42.155000000000001</v>
       </c>
       <c r="D31">
-        <v>1741.8</v>
+        <v>382.18400000000003</v>
       </c>
       <c r="E31">
-        <v>668.6</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="F31">
-        <v>1221.9000000000001</v>
+        <v>291.62599999999998</v>
       </c>
       <c r="G31">
-        <v>2408</v>
+        <v>325.036</v>
       </c>
       <c r="H31">
-        <v>34372.699999999997</v>
+        <v>8192.2270000000008</v>
       </c>
       <c r="I31">
-        <v>118.7</v>
+        <v>132.53299999999999</v>
       </c>
       <c r="J31">
-        <v>18568.8</v>
+        <v>4433.1620000000003</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2584.9</v>
+        <v>-325.64</v>
       </c>
       <c r="N31">
-        <v>4544.7</v>
+        <v>306.52300000000002</v>
       </c>
       <c r="O31">
-        <v>26366.2</v>
+        <v>5275.683</v>
       </c>
       <c r="P31">
-        <v>21372</v>
+        <v>4434.8500000000004</v>
       </c>
       <c r="Q31">
-        <v>324</v>
+        <v>88.51</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8006.5</v>
+        <v>2916.5439999999999</v>
       </c>
       <c r="U31">
-        <v>1125.4000000000001</v>
+        <v>121.633</v>
       </c>
       <c r="V31">
-        <v>791.8</v>
+        <v>182.38200000000001</v>
       </c>
       <c r="W31">
-        <v>-323.2</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>817.3</v>
+        <v>-25.140999999999998</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-394.1</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="AA31">
-        <v>285.2</v>
+        <v>42.155000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>306.7</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1780.9</v>
+        <v>393.72800000000001</v>
       </c>
       <c r="E32">
-        <v>659.5</v>
+        <v>40.774000000000001</v>
       </c>
       <c r="F32">
-        <v>1220.5999999999999</v>
+        <v>296.85399999999998</v>
       </c>
       <c r="G32">
-        <v>2046.3</v>
+        <v>347.36500000000001</v>
       </c>
       <c r="H32">
-        <v>33205.699999999997</v>
+        <v>8265.5400000000009</v>
       </c>
       <c r="I32">
-        <v>137</v>
+        <v>130.81700000000001</v>
       </c>
       <c r="J32">
-        <v>18322</v>
+        <v>4419.0169999999998</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4562.8999999999996</v>
+        <v>279.17</v>
       </c>
       <c r="O32">
-        <v>26069.8</v>
+        <v>5237.808</v>
       </c>
       <c r="P32">
-        <v>21113.8</v>
+        <v>4420.7160000000003</v>
       </c>
       <c r="Q32">
-        <v>-308.8</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7135.9</v>
+        <v>3027.732</v>
       </c>
       <c r="U32">
-        <v>834.5</v>
+        <v>152.13</v>
       </c>
       <c r="V32">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>-331.3</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-628.9</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>335.8</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>306.7</v>
+        <v>158.786</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>366.9</v>
+        <v>60.466000000000001</v>
       </c>
       <c r="D33">
-        <v>1785.5</v>
+        <v>409.26799999999997</v>
       </c>
       <c r="E33">
-        <v>660.9</v>
+        <v>46.146000000000001</v>
       </c>
       <c r="F33">
-        <v>1228.8</v>
+        <v>305.411</v>
       </c>
       <c r="G33">
-        <v>2368.8000000000002</v>
+        <v>265.67</v>
       </c>
       <c r="H33">
-        <v>33077.199999999997</v>
+        <v>8129.9359999999997</v>
       </c>
       <c r="I33">
-        <v>122.9</v>
+        <v>144.429</v>
       </c>
       <c r="J33">
-        <v>18422.900000000001</v>
+        <v>4428.5739999999996</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4579.7</v>
+        <v>309.50299999999999</v>
       </c>
       <c r="O33">
-        <v>26193.7</v>
+        <v>5286.7070000000003</v>
       </c>
       <c r="P33">
-        <v>21264.2</v>
+        <v>4430.3630000000003</v>
       </c>
       <c r="Q33">
-        <v>323.2</v>
+        <v>-85.894999999999996</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6883.5</v>
+        <v>2843.2289999999998</v>
       </c>
       <c r="U33">
-        <v>1026.5</v>
+        <v>66.234999999999999</v>
       </c>
       <c r="V33">
-        <v>753.3</v>
+        <v>227.19300000000001</v>
       </c>
       <c r="W33">
-        <v>-339.5</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-222.7</v>
+        <v>-250.56899999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>83.1</v>
+        <v>2.1629999999999998</v>
       </c>
       <c r="AA33">
-        <v>366.9</v>
+        <v>60.466000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>277.60000000000002</v>
+        <v>85.838999999999999</v>
       </c>
       <c r="D34">
-        <v>2131.9</v>
+        <v>408.32400000000001</v>
       </c>
       <c r="E34">
-        <v>585.1</v>
+        <v>51.313000000000002</v>
       </c>
       <c r="F34">
-        <v>1591</v>
+        <v>309.75799999999998</v>
       </c>
       <c r="G34">
-        <v>2385.1</v>
+        <v>471.65199999999999</v>
       </c>
       <c r="H34">
-        <v>33010.400000000001</v>
+        <v>8211.6650000000009</v>
       </c>
       <c r="I34">
-        <v>130.80000000000001</v>
+        <v>151.98500000000001</v>
       </c>
       <c r="J34">
-        <v>18266.3</v>
+        <v>4357.93</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4689.8999999999996</v>
+        <v>302.64499999999998</v>
       </c>
       <c r="O34">
-        <v>26106</v>
+        <v>5217.1859999999997</v>
       </c>
       <c r="P34">
-        <v>21159.9</v>
+        <v>4359.7669999999998</v>
       </c>
       <c r="Q34">
-        <v>11.6</v>
+        <v>76.841999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>5026</v>
+        <v>1198</v>
       </c>
       <c r="T34">
-        <v>6904.4</v>
+        <v>2994.4789999999998</v>
       </c>
       <c r="U34">
-        <v>1208.7</v>
+        <v>143.077</v>
       </c>
       <c r="V34">
-        <v>1263.2</v>
+        <v>186.93199999999999</v>
       </c>
       <c r="W34">
-        <v>-348.4</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-573.4</v>
+        <v>-26.425000000000001</v>
       </c>
       <c r="Y34">
-        <v>138.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>73.099999999999994</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="AA34">
-        <v>277.60000000000002</v>
+        <v>85.838999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>397.4</v>
+        <v>58.600999999999999</v>
       </c>
       <c r="D35">
-        <v>1813.4</v>
+        <v>408.678</v>
       </c>
       <c r="E35">
-        <v>604.29999999999995</v>
+        <v>60.057000000000002</v>
       </c>
       <c r="F35">
-        <v>1270</v>
+        <v>310.97300000000001</v>
       </c>
       <c r="G35">
-        <v>2043.9</v>
+        <v>658.73099999999999</v>
       </c>
       <c r="H35">
-        <v>38926.800000000003</v>
+        <v>8325.8700000000008</v>
       </c>
       <c r="I35">
-        <v>130</v>
+        <v>144.268</v>
       </c>
       <c r="J35">
-        <v>19085.3</v>
+        <v>4330.9989999999998</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-4025.9</v>
+        <v>-1.155</v>
       </c>
       <c r="N35">
-        <v>4411.8999999999996</v>
+        <v>319.30799999999999</v>
       </c>
       <c r="O35">
-        <v>32437.5</v>
+        <v>5243.8</v>
       </c>
       <c r="P35">
-        <v>28018.799999999999</v>
+        <v>4332.5259999999998</v>
       </c>
       <c r="Q35">
-        <v>-205.2</v>
+        <v>159.96100000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6489.3</v>
+        <v>3082.07</v>
       </c>
       <c r="U35">
-        <v>1004.8</v>
+        <v>303.03800000000001</v>
       </c>
       <c r="V35">
-        <v>785.1</v>
+        <v>205.738</v>
       </c>
       <c r="W35">
-        <v>-377.1</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-650.4</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="Y35">
-        <v>6337.9</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-6.6</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="AA35">
-        <v>397.4</v>
+        <v>58.600999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>429.1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1889.6</v>
+        <v>423.358</v>
       </c>
       <c r="E36">
-        <v>579.4</v>
+        <v>72.525999999999996</v>
       </c>
       <c r="F36">
-        <v>1326.3</v>
+        <v>320.78500000000003</v>
       </c>
       <c r="G36">
-        <v>2232.4</v>
+        <v>709.06799999999998</v>
       </c>
       <c r="H36">
-        <v>39072.699999999997</v>
+        <v>8486.4869999999992</v>
       </c>
       <c r="I36">
-        <v>144.9</v>
+        <v>172.66300000000001</v>
       </c>
       <c r="J36">
-        <v>18593.599999999999</v>
+        <v>4421.6940000000004</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4821.6000000000004</v>
+        <v>348.02</v>
       </c>
       <c r="O36">
-        <v>32439.4</v>
+        <v>5395.4520000000002</v>
       </c>
       <c r="P36">
-        <v>27890.400000000001</v>
+        <v>4444.2709999999997</v>
       </c>
       <c r="Q36">
-        <v>186.3</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6633.3</v>
+        <v>3091.0349999999999</v>
       </c>
       <c r="U36">
-        <v>1192.2</v>
+        <v>323.637</v>
       </c>
       <c r="V36">
-        <v>1036.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>-398</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-597</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>6357.7</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>19.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>429.1</v>
+        <v>56.289000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>498.6</v>
+        <v>67.355000000000004</v>
       </c>
       <c r="D37">
-        <v>1953.6</v>
+        <v>444.10500000000002</v>
       </c>
       <c r="E37">
-        <v>565.70000000000005</v>
+        <v>71.271000000000001</v>
       </c>
       <c r="F37">
-        <v>1393.7</v>
+        <v>335.51100000000002</v>
       </c>
       <c r="G37">
-        <v>2362</v>
+        <v>622.08600000000001</v>
       </c>
       <c r="H37">
-        <v>39307.199999999997</v>
+        <v>8394.8240000000005</v>
       </c>
       <c r="I37">
-        <v>136.19999999999999</v>
+        <v>165.95699999999999</v>
       </c>
       <c r="J37">
-        <v>19016.900000000001</v>
+        <v>4201.835</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4787.3999999999996</v>
+        <v>341.00099999999998</v>
       </c>
       <c r="O37">
-        <v>32937.300000000003</v>
+        <v>5159.6729999999998</v>
       </c>
       <c r="P37">
-        <v>28406.7</v>
+        <v>4209.5519999999997</v>
       </c>
       <c r="Q37">
-        <v>162.30000000000001</v>
+        <v>-93.962999999999994</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6369.9</v>
+        <v>3235.1509999999998</v>
       </c>
       <c r="U37">
-        <v>1352.6</v>
+        <v>229.67400000000001</v>
       </c>
       <c r="V37">
-        <v>937.2</v>
+        <v>240.053</v>
       </c>
       <c r="W37">
-        <v>-407.1</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>72.8</v>
+        <v>-201.608</v>
       </c>
       <c r="Y37">
-        <v>6471.1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>9.6999999999999993</v>
+        <v>1.155</v>
       </c>
       <c r="AA37">
-        <v>498.6</v>
+        <v>67.355000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>562.70000000000005</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="D38">
-        <v>1923.7</v>
+        <v>447.97300000000001</v>
       </c>
       <c r="E38">
-        <v>604.5</v>
+        <v>67.948999999999998</v>
       </c>
       <c r="F38">
-        <v>1373.5</v>
+        <v>340.471</v>
       </c>
       <c r="G38">
-        <v>2553.8000000000002</v>
+        <v>645.32000000000005</v>
       </c>
       <c r="H38">
-        <v>42801.599999999999</v>
+        <v>8519.9310000000005</v>
       </c>
       <c r="I38">
-        <v>148.1</v>
+        <v>185.13800000000001</v>
       </c>
       <c r="J38">
-        <v>21103.200000000001</v>
+        <v>4159.9120000000003</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>5487.7</v>
+        <v>391.24400000000003</v>
       </c>
       <c r="O38">
-        <v>36214.699999999997</v>
+        <v>5201.8059999999996</v>
       </c>
       <c r="P38">
-        <v>31060.3</v>
+        <v>4230.433</v>
       </c>
       <c r="Q38">
-        <v>129.69999999999999</v>
+        <v>17.619</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>5454</v>
+        <v>1420</v>
       </c>
       <c r="T38">
-        <v>6586.9</v>
+        <v>3318.125</v>
       </c>
       <c r="U38">
-        <v>1501.2</v>
+        <v>247.29300000000001</v>
       </c>
       <c r="V38">
-        <v>993.7</v>
+        <v>192.727</v>
       </c>
       <c r="W38">
-        <v>-420.8</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>1696.3</v>
+        <v>23.513000000000002</v>
       </c>
       <c r="Y38">
-        <v>6534.4</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>5.0999999999999996</v>
+        <v>-2.0910000000000002</v>
       </c>
       <c r="AA38">
-        <v>562.70000000000005</v>
+        <v>64.349999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>415</v>
+        <v>96.317999999999998</v>
       </c>
       <c r="D39">
-        <v>1993.1</v>
+        <v>454.43400000000003</v>
       </c>
       <c r="E39">
-        <v>725.7</v>
+        <v>73.540999999999997</v>
       </c>
       <c r="F39">
-        <v>1441.1</v>
+        <v>347.96499999999997</v>
       </c>
       <c r="G39">
-        <v>2504.9</v>
+        <v>800.25199999999995</v>
       </c>
       <c r="H39">
-        <v>40789.1</v>
+        <v>8674.2510000000002</v>
       </c>
       <c r="I39">
-        <v>120.6</v>
+        <v>183.85400000000001</v>
       </c>
       <c r="J39">
-        <v>21911.8</v>
+        <v>4152.03</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-4384.7</v>
+        <v>-60.709000000000003</v>
       </c>
       <c r="N39">
-        <v>5154.3999999999996</v>
+        <v>422.81099999999998</v>
       </c>
       <c r="O39">
-        <v>36183.1</v>
+        <v>5216.4049999999997</v>
       </c>
       <c r="P39">
-        <v>31192</v>
+        <v>4229.9350000000004</v>
       </c>
       <c r="Q39">
-        <v>-177.7</v>
+        <v>105.59399999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4606</v>
+        <v>3457.846</v>
       </c>
       <c r="U39">
-        <v>1326</v>
+        <v>352.887</v>
       </c>
       <c r="V39">
-        <v>800</v>
+        <v>253.649</v>
       </c>
       <c r="W39">
-        <v>-454.9</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-606</v>
+        <v>2.65</v>
       </c>
       <c r="Y39">
-        <v>6163.4</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>5.8</v>
+        <v>-8.0749999999999993</v>
       </c>
       <c r="AA39">
-        <v>415</v>
+        <v>96.317999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>446.1</v>
+        <v>99.665000000000006</v>
       </c>
       <c r="D40">
-        <v>1913</v>
+        <v>469.93700000000001</v>
       </c>
       <c r="E40">
-        <v>684</v>
+        <v>48.872</v>
       </c>
       <c r="F40">
-        <v>1373</v>
+        <v>357.738</v>
       </c>
       <c r="G40">
-        <v>3226.6</v>
+        <v>742.64700000000005</v>
       </c>
       <c r="H40">
-        <v>41515.9</v>
+        <v>8585.9230000000007</v>
       </c>
       <c r="I40">
-        <v>108.2</v>
+        <v>205.04</v>
       </c>
       <c r="J40">
-        <v>21824.2</v>
+        <v>4163.3620000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5944.9</v>
+        <v>358.82</v>
       </c>
       <c r="O40">
-        <v>36913.300000000003</v>
+        <v>5155.9129999999996</v>
       </c>
       <c r="P40">
-        <v>31796.3</v>
+        <v>4164.9719999999998</v>
       </c>
       <c r="Q40">
-        <v>705.8</v>
+        <v>-49.994</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4602.6000000000004</v>
+        <v>3430.01</v>
       </c>
       <c r="U40">
-        <v>2038.1</v>
+        <v>302.89299999999997</v>
       </c>
       <c r="V40">
-        <v>988.8</v>
+        <v>262.74700000000001</v>
       </c>
       <c r="W40">
-        <v>-478.9</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>99.2</v>
+        <v>-177.51300000000001</v>
       </c>
       <c r="Y40">
-        <v>6111.8</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>3.5</v>
+        <v>1.056</v>
       </c>
       <c r="AA40">
-        <v>446.1</v>
+        <v>99.665000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>464.4</v>
+        <v>93.438999999999993</v>
       </c>
       <c r="D41">
-        <v>2012.9</v>
+        <v>513.322</v>
       </c>
       <c r="E41">
-        <v>686.9</v>
+        <v>92.869</v>
       </c>
       <c r="F41">
-        <v>1450.3</v>
+        <v>390.34899999999999</v>
       </c>
       <c r="G41">
-        <v>2852.5</v>
+        <v>901.58799999999997</v>
       </c>
       <c r="H41">
-        <v>41462.199999999997</v>
+        <v>9448.9779999999992</v>
       </c>
       <c r="I41">
-        <v>117</v>
+        <v>245.952</v>
       </c>
       <c r="J41">
-        <v>23985.200000000001</v>
+        <v>4634.2150000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3266.1</v>
+        <v>614.86699999999996</v>
       </c>
       <c r="O41">
-        <v>36718.199999999997</v>
+        <v>5995.3280000000004</v>
       </c>
       <c r="P41">
-        <v>31694</v>
+        <v>4812.87</v>
       </c>
       <c r="Q41">
-        <v>-375.9</v>
+        <v>68.984999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4744</v>
+        <v>3453.65</v>
       </c>
       <c r="U41">
-        <v>1626</v>
+        <v>371.87799999999999</v>
       </c>
       <c r="V41">
-        <v>960.3</v>
+        <v>258.22300000000001</v>
       </c>
       <c r="W41">
-        <v>-488</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-1012.6</v>
+        <v>374.82100000000003</v>
       </c>
       <c r="Y41">
-        <v>6450.2</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>5.4</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="AA41">
-        <v>464.4</v>
+        <v>93.438999999999993</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>81.478999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1361.8009999999999</v>
+      </c>
+      <c r="H42">
+        <v>10370.084000000001</v>
+      </c>
+      <c r="I42">
+        <v>67.123999999999995</v>
+      </c>
+      <c r="J42">
+        <v>5515.8029999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>539.46100000000001</v>
+      </c>
+      <c r="O42">
+        <v>6865.5259999999998</v>
+      </c>
+      <c r="P42">
+        <v>5590.6989999999996</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1729</v>
+      </c>
+      <c r="T42">
+        <v>3504.558</v>
+      </c>
+      <c r="U42">
+        <v>883.96299999999997</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>91.841999999999999</v>
+      </c>
+      <c r="D43">
+        <v>562.69500000000005</v>
+      </c>
+      <c r="E43">
+        <v>97.828999999999994</v>
+      </c>
+      <c r="F43">
+        <v>427.36700000000002</v>
+      </c>
+      <c r="G43">
+        <v>940.72199999999998</v>
+      </c>
+      <c r="H43">
+        <v>10758.749</v>
+      </c>
+      <c r="I43">
+        <v>431.40800000000002</v>
+      </c>
+      <c r="J43">
+        <v>5387.7280000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-126.669</v>
+      </c>
+      <c r="N43">
+        <v>826.40700000000004</v>
+      </c>
+      <c r="O43">
+        <v>7249.7330000000002</v>
+      </c>
+      <c r="P43">
+        <v>5565.8329999999996</v>
+      </c>
+      <c r="Q43">
+        <v>-521.14</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3509.0160000000001</v>
+      </c>
+      <c r="U43">
+        <v>362.82299999999998</v>
+      </c>
+      <c r="V43">
+        <v>283.81599999999997</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-137.52600000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>37.152000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>91.841999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>115.211</v>
+      </c>
+      <c r="D44">
+        <v>597.23500000000001</v>
+      </c>
+      <c r="E44">
+        <v>99.822999999999993</v>
+      </c>
+      <c r="F44">
+        <v>446.15800000000002</v>
+      </c>
+      <c r="G44">
+        <v>910.72799999999995</v>
+      </c>
+      <c r="H44">
+        <v>10973.784</v>
+      </c>
+      <c r="I44">
+        <v>339.93099999999998</v>
+      </c>
+      <c r="J44">
+        <v>4919.0680000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1309.883</v>
+      </c>
+      <c r="O44">
+        <v>7373.9960000000001</v>
+      </c>
+      <c r="P44">
+        <v>5701.8429999999998</v>
+      </c>
+      <c r="Q44">
+        <v>-30.280999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3599.788</v>
+      </c>
+      <c r="U44">
+        <v>332.54199999999997</v>
+      </c>
+      <c r="V44">
+        <v>275.52199999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>80.146000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>9.5719999999999992</v>
+      </c>
+      <c r="AA44">
+        <v>115.211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-15.701000000000001</v>
+      </c>
+      <c r="D45">
+        <v>630.40300000000002</v>
+      </c>
+      <c r="E45">
+        <v>100.063</v>
+      </c>
+      <c r="F45">
+        <v>461.47</v>
+      </c>
+      <c r="G45">
+        <v>809.07899999999995</v>
+      </c>
+      <c r="H45">
+        <v>10895.335999999999</v>
+      </c>
+      <c r="I45">
+        <v>352.78100000000001</v>
+      </c>
+      <c r="J45">
+        <v>4970.5020000000004</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1371.328</v>
+      </c>
+      <c r="O45">
+        <v>7547.6949999999997</v>
+      </c>
+      <c r="P45">
+        <v>5831.6620000000003</v>
+      </c>
+      <c r="Q45">
+        <v>-155.036</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3347.6410000000001</v>
+      </c>
+      <c r="U45">
+        <v>177.506</v>
+      </c>
+      <c r="V45">
+        <v>290.66000000000003</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>61.645000000000003</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-1.913</v>
+      </c>
+      <c r="AA45">
+        <v>-15.701000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>205.11</v>
+      </c>
+      <c r="D46">
+        <v>653.19899999999996</v>
+      </c>
+      <c r="E46">
+        <v>100.61</v>
+      </c>
+      <c r="F46">
+        <v>487.58100000000002</v>
+      </c>
+      <c r="G46">
+        <v>752.88499999999999</v>
+      </c>
+      <c r="H46">
+        <v>12242.395</v>
+      </c>
+      <c r="I46">
+        <v>215.93100000000001</v>
+      </c>
+      <c r="J46">
+        <v>7134.4920000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>781.49699999999996</v>
+      </c>
+      <c r="O46">
+        <v>8832.2530000000006</v>
+      </c>
+      <c r="P46">
+        <v>7236.308</v>
+      </c>
+      <c r="Q46">
+        <v>152.685</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2122</v>
+      </c>
+      <c r="T46">
+        <v>3410.1419999999998</v>
+      </c>
+      <c r="U46">
+        <v>330.19099999999997</v>
+      </c>
+      <c r="V46">
+        <v>315.94400000000002</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1081.83</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-17.43</v>
+      </c>
+      <c r="AA46">
+        <v>205.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>221.30600000000001</v>
+      </c>
+      <c r="D47">
+        <v>696.51700000000005</v>
+      </c>
+      <c r="E47">
+        <v>105.12</v>
+      </c>
+      <c r="F47">
+        <v>525.53200000000004</v>
+      </c>
+      <c r="G47">
+        <v>942.55200000000002</v>
+      </c>
+      <c r="H47">
+        <v>12638.206</v>
+      </c>
+      <c r="I47">
+        <v>226.28299999999999</v>
+      </c>
+      <c r="J47">
+        <v>7161.5050000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2018.847</v>
+      </c>
+      <c r="N47">
+        <v>939.26700000000005</v>
+      </c>
+      <c r="O47">
+        <v>9051.8029999999999</v>
+      </c>
+      <c r="P47">
+        <v>7288.8209999999999</v>
+      </c>
+      <c r="Q47">
+        <v>141.06700000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3586.4029999999998</v>
+      </c>
+      <c r="U47">
+        <v>471.25799999999998</v>
+      </c>
+      <c r="V47">
+        <v>402.017</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>27.44</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-8.99</v>
+      </c>
+      <c r="AA47">
+        <v>221.30600000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>48.209000000000003</v>
+      </c>
+      <c r="D48">
+        <v>697.73400000000004</v>
+      </c>
+      <c r="E48">
+        <v>99.180999999999997</v>
+      </c>
+      <c r="F48">
+        <v>525.35</v>
+      </c>
+      <c r="G48">
+        <v>889.51700000000005</v>
+      </c>
+      <c r="H48">
+        <v>12709.359</v>
+      </c>
+      <c r="I48">
+        <v>201.386</v>
+      </c>
+      <c r="J48">
+        <v>7339.085</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>906.49300000000005</v>
+      </c>
+      <c r="O48">
+        <v>9223.1689999999999</v>
+      </c>
+      <c r="P48">
+        <v>7466.9520000000002</v>
+      </c>
+      <c r="Q48">
+        <v>10.679</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3486.19</v>
+      </c>
+      <c r="U48">
+        <v>481.93700000000001</v>
+      </c>
+      <c r="V48">
+        <v>360.858</v>
+      </c>
+      <c r="W48">
+        <v>-82.881</v>
+      </c>
+      <c r="X48">
+        <v>142.85</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>48.209000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>232.089</v>
+      </c>
+      <c r="D49">
+        <v>713.33500000000004</v>
+      </c>
+      <c r="E49">
+        <v>148.80699999999999</v>
+      </c>
+      <c r="F49">
+        <v>528.43100000000004</v>
+      </c>
+      <c r="G49">
+        <v>872.78300000000002</v>
+      </c>
+      <c r="H49">
+        <v>12961.304</v>
+      </c>
+      <c r="I49">
+        <v>87.38</v>
+      </c>
+      <c r="J49">
+        <v>7361.8090000000002</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>850.92499999999995</v>
+      </c>
+      <c r="O49">
+        <v>9275.3220000000001</v>
+      </c>
+      <c r="P49">
+        <v>7492.018</v>
+      </c>
+      <c r="Q49">
+        <v>-99.625</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3685.982</v>
+      </c>
+      <c r="U49">
+        <v>382.31200000000001</v>
+      </c>
+      <c r="V49">
+        <v>353.67200000000003</v>
+      </c>
+      <c r="W49">
+        <v>-86.935000000000002</v>
+      </c>
+      <c r="X49">
+        <v>-58.195</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>33.563000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>232.089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>135.679</v>
+      </c>
+      <c r="D50">
+        <v>768.37400000000002</v>
+      </c>
+      <c r="E50">
+        <v>176.15</v>
+      </c>
+      <c r="F50">
+        <v>574.16800000000001</v>
+      </c>
+      <c r="G50">
+        <v>830.24900000000002</v>
+      </c>
+      <c r="H50">
+        <v>14089.429</v>
+      </c>
+      <c r="I50">
+        <v>89.578000000000003</v>
+      </c>
+      <c r="J50">
+        <v>8698.7870000000003</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>632.178</v>
+      </c>
+      <c r="O50">
+        <v>10405.248</v>
+      </c>
+      <c r="P50">
+        <v>8758.8179999999993</v>
+      </c>
+      <c r="Q50">
+        <v>-13.694000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2432</v>
+      </c>
+      <c r="T50">
+        <v>3684.181</v>
+      </c>
+      <c r="U50">
+        <v>368.61799999999999</v>
+      </c>
+      <c r="V50">
+        <v>297.84399999999999</v>
+      </c>
+      <c r="W50">
+        <v>-185.75800000000001</v>
+      </c>
+      <c r="X50">
+        <v>1058.271</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-5.99</v>
+      </c>
+      <c r="AA50">
+        <v>135.679</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>171.40700000000001</v>
+      </c>
+      <c r="D51">
+        <v>802.72799999999995</v>
+      </c>
+      <c r="E51">
+        <v>145.446</v>
+      </c>
+      <c r="F51">
+        <v>600.96199999999999</v>
+      </c>
+      <c r="G51">
+        <v>890.61199999999997</v>
+      </c>
+      <c r="H51">
+        <v>14463.74</v>
+      </c>
+      <c r="I51">
+        <v>86.769000000000005</v>
+      </c>
+      <c r="J51">
+        <v>8797.1650000000009</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2966.9780000000001</v>
+      </c>
+      <c r="N51">
+        <v>739.12400000000002</v>
+      </c>
+      <c r="O51">
+        <v>10682.218000000001</v>
+      </c>
+      <c r="P51">
+        <v>8854.768</v>
+      </c>
+      <c r="Q51">
+        <v>73.087999999999994</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3781.5219999999999</v>
+      </c>
+      <c r="U51">
+        <v>441.70600000000002</v>
+      </c>
+      <c r="V51">
+        <v>394.036</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>34.628999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-7.5</v>
+      </c>
+      <c r="AA51">
+        <v>171.40700000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>99.820999999999998</v>
+      </c>
+      <c r="D52">
+        <v>808.83</v>
+      </c>
+      <c r="E52">
+        <v>166.73599999999999</v>
+      </c>
+      <c r="F52">
+        <v>603.12099999999998</v>
+      </c>
+      <c r="G52">
+        <v>931.79399999999998</v>
+      </c>
+      <c r="H52">
+        <v>14339.394</v>
+      </c>
+      <c r="I52">
+        <v>91.021000000000001</v>
+      </c>
+      <c r="J52">
+        <v>8799.3369999999995</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>781.04</v>
+      </c>
+      <c r="O52">
+        <v>10719.527</v>
+      </c>
+      <c r="P52">
+        <v>8856.6869999999999</v>
+      </c>
+      <c r="Q52">
+        <v>6.7409999999999997</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3619.8670000000002</v>
+      </c>
+      <c r="U52">
+        <v>448.447</v>
+      </c>
+      <c r="V52">
+        <v>390.48500000000001</v>
+      </c>
+      <c r="W52">
+        <v>-102.98399999999999</v>
+      </c>
+      <c r="X52">
+        <v>-129.489</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-1.403</v>
+      </c>
+      <c r="AA52">
+        <v>99.820999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>180.12299999999999</v>
+      </c>
+      <c r="D53">
+        <v>807.88</v>
+      </c>
+      <c r="E53">
+        <v>180.482</v>
+      </c>
+      <c r="F53">
+        <v>607.05100000000004</v>
+      </c>
+      <c r="G53">
+        <v>4714.6549999999997</v>
+      </c>
+      <c r="H53">
+        <v>18181.32</v>
+      </c>
+      <c r="I53">
+        <v>90.844999999999999</v>
+      </c>
+      <c r="J53">
+        <v>12580.120999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>823.31899999999996</v>
+      </c>
+      <c r="O53">
+        <v>14569.403</v>
+      </c>
+      <c r="P53">
+        <v>12647.397000000001</v>
+      </c>
+      <c r="Q53">
+        <v>3591.9059999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3611.9169999999999</v>
+      </c>
+      <c r="U53">
+        <v>4040.3530000000001</v>
+      </c>
+      <c r="V53">
+        <v>359.92200000000003</v>
+      </c>
+      <c r="W53">
+        <v>-106.727</v>
+      </c>
+      <c r="X53">
+        <v>3589.6190000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-13.432</v>
+      </c>
+      <c r="AA53">
+        <v>180.12299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>99.981999999999999</v>
+      </c>
+      <c r="D54">
+        <v>941.96900000000005</v>
+      </c>
+      <c r="E54">
+        <v>176.577</v>
+      </c>
+      <c r="F54">
+        <v>690.4</v>
+      </c>
+      <c r="G54">
+        <v>967.47500000000002</v>
+      </c>
+      <c r="H54">
+        <v>20283.665000000001</v>
+      </c>
+      <c r="I54">
+        <v>172.93799999999999</v>
+      </c>
+      <c r="J54">
+        <v>14410.331</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>932.66300000000001</v>
+      </c>
+      <c r="O54">
+        <v>16693.625</v>
+      </c>
+      <c r="P54">
+        <v>14480.463</v>
+      </c>
+      <c r="Q54">
+        <v>-3746.777</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2716</v>
+      </c>
+      <c r="T54">
+        <v>3590.04</v>
+      </c>
+      <c r="U54">
+        <v>293.57600000000002</v>
+      </c>
+      <c r="V54">
+        <v>454.60399999999998</v>
+      </c>
+      <c r="W54">
+        <v>-224.976</v>
+      </c>
+      <c r="X54">
+        <v>30.806000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>16.782</v>
+      </c>
+      <c r="AA54">
+        <v>99.981999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>202.499</v>
+      </c>
+      <c r="D55">
+        <v>984.08900000000006</v>
+      </c>
+      <c r="E55">
+        <v>264.27</v>
+      </c>
+      <c r="F55">
+        <v>723.32</v>
+      </c>
+      <c r="G55">
+        <v>1008.551</v>
+      </c>
+      <c r="H55">
+        <v>20417.406999999999</v>
+      </c>
+      <c r="I55">
+        <v>115.726</v>
+      </c>
+      <c r="J55">
+        <v>14010.847</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="M55">
+        <v>-916.63199999999995</v>
+      </c>
+      <c r="N55">
+        <v>1275.0050000000001</v>
+      </c>
+      <c r="O55">
+        <v>16715.802</v>
+      </c>
+      <c r="P55">
+        <v>14336.017</v>
+      </c>
+      <c r="Q55">
+        <v>39.863</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3701.605</v>
+      </c>
+      <c r="U55">
+        <v>333.43900000000002</v>
+      </c>
+      <c r="V55">
+        <v>476.58199999999999</v>
+      </c>
+      <c r="W55">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="X55">
+        <v>-152.90100000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-13.035</v>
+      </c>
+      <c r="AA55">
+        <v>202.499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>234.43100000000001</v>
+      </c>
+      <c r="D56">
+        <v>1031.4570000000001</v>
+      </c>
+      <c r="E56">
+        <v>212.483</v>
+      </c>
+      <c r="F56">
+        <v>759.18200000000002</v>
+      </c>
+      <c r="G56">
+        <v>983.14700000000005</v>
+      </c>
+      <c r="H56">
+        <v>20847.737000000001</v>
+      </c>
+      <c r="I56">
+        <v>132.73400000000001</v>
+      </c>
+      <c r="J56">
+        <v>12750.334999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2243.2460000000001</v>
+      </c>
+      <c r="O56">
+        <v>16439.573</v>
+      </c>
+      <c r="P56">
+        <v>13976.326999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-50.48</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4408.1639999999998</v>
+      </c>
+      <c r="U56">
+        <v>282.959</v>
+      </c>
+      <c r="V56">
+        <v>595.79999999999995</v>
+      </c>
+      <c r="W56">
+        <v>-126.715</v>
+      </c>
+      <c r="X56">
+        <v>-96.331000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>19.138000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>234.43100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>207.59299999999999</v>
+      </c>
+      <c r="D57">
+        <v>1038.1880000000001</v>
+      </c>
+      <c r="E57">
+        <v>225.989</v>
+      </c>
+      <c r="F57">
+        <v>753.98599999999999</v>
+      </c>
+      <c r="G57">
+        <v>967.93</v>
+      </c>
+      <c r="H57">
+        <v>20596.615000000002</v>
+      </c>
+      <c r="I57">
+        <v>111.001</v>
+      </c>
+      <c r="J57">
+        <v>12974.879000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1937.9179999999999</v>
+      </c>
+      <c r="O57">
+        <v>16411.300999999999</v>
+      </c>
+      <c r="P57">
+        <v>13935.34</v>
+      </c>
+      <c r="Q57">
+        <v>12.654</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4185.3140000000003</v>
+      </c>
+      <c r="U57">
+        <v>295.613</v>
+      </c>
+      <c r="V57">
+        <v>497.22399999999999</v>
+      </c>
+      <c r="W57">
+        <v>-142.78200000000001</v>
+      </c>
+      <c r="X57">
+        <v>-212.60499999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-13.393000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>207.59299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>180.387</v>
+      </c>
+      <c r="D58">
+        <v>1046.3140000000001</v>
+      </c>
+      <c r="E58">
+        <v>224.42599999999999</v>
+      </c>
+      <c r="F58">
+        <v>769.29499999999996</v>
+      </c>
+      <c r="G58">
+        <v>951.56500000000005</v>
+      </c>
+      <c r="H58">
+        <v>21263.564999999999</v>
+      </c>
+      <c r="I58">
+        <v>90.366</v>
+      </c>
+      <c r="J58">
+        <v>13642.955</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1929.5360000000001</v>
+      </c>
+      <c r="O58">
+        <v>17210.213</v>
+      </c>
+      <c r="P58">
+        <v>14540.341</v>
+      </c>
+      <c r="Q58">
+        <v>17.879000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2974</v>
+      </c>
+      <c r="T58">
+        <v>4053.3519999999999</v>
+      </c>
+      <c r="U58">
+        <v>313.49200000000002</v>
+      </c>
+      <c r="V58">
+        <v>564.98299999999995</v>
+      </c>
+      <c r="W58">
+        <v>-150.59299999999999</v>
+      </c>
+      <c r="X58">
+        <v>327.24599999999998</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>46.805</v>
+      </c>
+      <c r="AA58">
+        <v>180.387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>193.31700000000001</v>
+      </c>
+      <c r="D59">
+        <v>1079.19</v>
+      </c>
+      <c r="E59">
+        <v>202.547</v>
+      </c>
+      <c r="F59">
+        <v>814.55</v>
+      </c>
+      <c r="G59">
+        <v>911.42499999999995</v>
+      </c>
+      <c r="H59">
+        <v>25930.194</v>
+      </c>
+      <c r="I59">
+        <v>72.512</v>
+      </c>
+      <c r="J59">
+        <v>14932.237999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-2490.7710000000002</v>
+      </c>
+      <c r="N59">
+        <v>1731.414</v>
+      </c>
+      <c r="O59">
+        <v>18498.555</v>
+      </c>
+      <c r="P59">
+        <v>15721.39</v>
+      </c>
+      <c r="Q59">
+        <v>9.9079999999999995</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7431.6390000000001</v>
+      </c>
+      <c r="U59">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="V59">
+        <v>509.93</v>
+      </c>
+      <c r="W59">
+        <v>-159.91200000000001</v>
+      </c>
+      <c r="X59">
+        <v>4760.1270000000004</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-9.8729999999999993</v>
+      </c>
+      <c r="AA59">
+        <v>193.31700000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>156.05600000000001</v>
+      </c>
+      <c r="D60">
+        <v>1174.375</v>
+      </c>
+      <c r="E60">
+        <v>242.32400000000001</v>
+      </c>
+      <c r="F60">
+        <v>851.91700000000003</v>
+      </c>
+      <c r="G60">
+        <v>900.18799999999999</v>
+      </c>
+      <c r="H60">
+        <v>26469.724999999999</v>
+      </c>
+      <c r="I60">
+        <v>82.85</v>
+      </c>
+      <c r="J60">
+        <v>16185.878000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1036.6279999999999</v>
+      </c>
+      <c r="O60">
+        <v>19096.566999999999</v>
+      </c>
+      <c r="P60">
+        <v>16224.691999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-48.698</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7373.1580000000004</v>
+      </c>
+      <c r="U60">
+        <v>274.702</v>
+      </c>
+      <c r="V60">
+        <v>526.53</v>
+      </c>
+      <c r="W60">
+        <v>-200.93899999999999</v>
+      </c>
+      <c r="X60">
+        <v>230.09</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-24.696000000000002</v>
+      </c>
+      <c r="AA60">
+        <v>156.05600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>102.999</v>
+      </c>
+      <c r="D61">
+        <v>1237.9100000000001</v>
+      </c>
+      <c r="E61">
+        <v>238.03200000000001</v>
+      </c>
+      <c r="F61">
+        <v>872.52099999999996</v>
+      </c>
+      <c r="G61">
+        <v>925.87</v>
+      </c>
+      <c r="H61">
+        <v>26926.788</v>
+      </c>
+      <c r="I61">
+        <v>99.59</v>
+      </c>
+      <c r="J61">
+        <v>16981.556</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1369.508</v>
+      </c>
+      <c r="O61">
+        <v>20242.585999999999</v>
+      </c>
+      <c r="P61">
+        <v>17027.407999999999</v>
+      </c>
+      <c r="Q61">
+        <v>12.702</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6684.2020000000002</v>
+      </c>
+      <c r="U61">
+        <v>287.404</v>
+      </c>
+      <c r="V61">
+        <v>507.15499999999997</v>
+      </c>
+      <c r="W61">
+        <v>-213.02699999999999</v>
+      </c>
+      <c r="X61">
+        <v>642.23099999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>25.463000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>102.999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>232.702</v>
+      </c>
+      <c r="D62">
+        <v>1280.0409999999999</v>
+      </c>
+      <c r="E62">
+        <v>261.52699999999999</v>
+      </c>
+      <c r="F62">
+        <v>923.66</v>
+      </c>
+      <c r="G62">
+        <v>996.46799999999996</v>
+      </c>
+      <c r="H62">
+        <v>26904.272000000001</v>
+      </c>
+      <c r="I62">
+        <v>96.713999999999999</v>
+      </c>
+      <c r="J62">
+        <v>17068.807000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1200.029</v>
+      </c>
+      <c r="O62">
+        <v>20191.454000000002</v>
+      </c>
+      <c r="P62">
+        <v>17119.008999999998</v>
+      </c>
+      <c r="Q62">
+        <v>33.281999999999996</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3371</v>
+      </c>
+      <c r="T62">
+        <v>6712.8180000000002</v>
+      </c>
+      <c r="U62">
+        <v>320.68599999999998</v>
+      </c>
+      <c r="V62">
+        <v>639.43700000000001</v>
+      </c>
+      <c r="W62">
+        <v>-221.62100000000001</v>
+      </c>
+      <c r="X62">
+        <v>-43.347000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>18.61</v>
+      </c>
+      <c r="AA62">
+        <v>232.702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>275.15899999999999</v>
+      </c>
+      <c r="D63">
+        <v>1289.047</v>
+      </c>
+      <c r="E63">
+        <v>251.01900000000001</v>
+      </c>
+      <c r="F63">
+        <v>937.60199999999998</v>
+      </c>
+      <c r="G63">
+        <v>1036.5160000000001</v>
+      </c>
+      <c r="H63">
+        <v>27064.314999999999</v>
+      </c>
+      <c r="I63">
+        <v>94.051000000000002</v>
+      </c>
+      <c r="J63">
+        <v>16884.241999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-8.6359999999999992</v>
+      </c>
+      <c r="M63">
+        <v>-1388.6130000000001</v>
+      </c>
+      <c r="N63">
+        <v>1198.1559999999999</v>
+      </c>
+      <c r="O63">
+        <v>20064.099999999999</v>
+      </c>
+      <c r="P63">
+        <v>17022.095000000001</v>
+      </c>
+      <c r="Q63">
+        <v>15.717000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7000.2150000000001</v>
+      </c>
+      <c r="U63">
+        <v>336.40300000000002</v>
+      </c>
+      <c r="V63">
+        <v>563.51199999999994</v>
+      </c>
+      <c r="W63">
+        <v>-236.76499999999999</v>
+      </c>
+      <c r="X63">
+        <v>-366.06400000000002</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>275.15899999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>187.55</v>
+      </c>
+      <c r="D64">
+        <v>1442.2270000000001</v>
+      </c>
+      <c r="E64">
+        <v>344.54599999999999</v>
+      </c>
+      <c r="F64">
+        <v>982.51599999999996</v>
+      </c>
+      <c r="G64">
+        <v>1320.6</v>
+      </c>
+      <c r="H64">
+        <v>30740.198</v>
+      </c>
+      <c r="I64">
+        <v>120.586</v>
+      </c>
+      <c r="J64">
+        <v>18403.012999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1655.6310000000001</v>
+      </c>
+      <c r="O64">
+        <v>22814.815999999999</v>
+      </c>
+      <c r="P64">
+        <v>18717.076000000001</v>
+      </c>
+      <c r="Q64">
+        <v>74.135000000000005</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7925.3819999999996</v>
+      </c>
+      <c r="U64">
+        <v>410.53800000000001</v>
+      </c>
+      <c r="V64">
+        <v>747.80399999999997</v>
+      </c>
+      <c r="W64">
+        <v>-243.36199999999999</v>
+      </c>
+      <c r="X64">
+        <v>696.32299999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1.417</v>
+      </c>
+      <c r="AA64">
+        <v>187.55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>264.50900000000001</v>
+      </c>
+      <c r="D65">
+        <v>1514.845</v>
+      </c>
+      <c r="E65">
+        <v>333.83499999999998</v>
+      </c>
+      <c r="F65">
+        <v>1023.6079999999999</v>
+      </c>
+      <c r="G65">
+        <v>1370.7560000000001</v>
+      </c>
+      <c r="H65">
+        <v>30655.526999999998</v>
+      </c>
+      <c r="I65">
+        <v>105.551</v>
+      </c>
+      <c r="J65">
+        <v>18436.144</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1519.5530000000001</v>
+      </c>
+      <c r="O65">
+        <v>22781.044000000002</v>
+      </c>
+      <c r="P65">
+        <v>18679.135999999999</v>
+      </c>
+      <c r="Q65">
+        <v>119.82</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7874.4830000000002</v>
+      </c>
+      <c r="U65">
+        <v>530.35799999999995</v>
+      </c>
+      <c r="V65">
+        <v>667.11500000000001</v>
+      </c>
+      <c r="W65">
+        <v>-252.18299999999999</v>
+      </c>
+      <c r="X65">
+        <v>-303.53199999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>264.50900000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>229.18199999999999</v>
+      </c>
+      <c r="D66">
+        <v>1539.5809999999999</v>
+      </c>
+      <c r="E66">
+        <v>366.1</v>
+      </c>
+      <c r="F66">
+        <v>1051.5740000000001</v>
+      </c>
+      <c r="G66">
+        <v>1685.9</v>
+      </c>
+      <c r="H66">
+        <v>30879.200000000001</v>
+      </c>
+      <c r="I66">
+        <v>118.7</v>
+      </c>
+      <c r="J66">
+        <v>18294.7</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1631.3</v>
+      </c>
+      <c r="O66">
+        <v>22811.7</v>
+      </c>
+      <c r="P66">
+        <v>18533.5</v>
+      </c>
+      <c r="Q66">
+        <v>263.928</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>4507</v>
+      </c>
+      <c r="T66">
+        <v>8067.5</v>
+      </c>
+      <c r="U66">
+        <v>787.2</v>
+      </c>
+      <c r="V66">
+        <v>723.26900000000001</v>
+      </c>
+      <c r="W66">
+        <v>-260.89</v>
+      </c>
+      <c r="X66">
+        <v>-126.027</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>7.8410000000000002</v>
+      </c>
+      <c r="AA66">
+        <v>229.18199999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>316.10000000000002</v>
+      </c>
+      <c r="D67">
+        <v>1616.2</v>
+      </c>
+      <c r="E67">
+        <v>448.73200000000003</v>
+      </c>
+      <c r="F67">
+        <v>1123.5</v>
+      </c>
+      <c r="G67">
+        <v>1705.893</v>
+      </c>
+      <c r="H67">
+        <v>32057.388999999999</v>
+      </c>
+      <c r="I67">
+        <v>109.42400000000001</v>
+      </c>
+      <c r="J67">
+        <v>17208.732</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1695.2</v>
+      </c>
+      <c r="N67">
+        <v>3209.058</v>
+      </c>
+      <c r="O67">
+        <v>23542.561000000002</v>
+      </c>
+      <c r="P67">
+        <v>18916.062000000002</v>
+      </c>
+      <c r="Q67">
+        <v>-78.2</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8514.8279999999995</v>
+      </c>
+      <c r="U67">
+        <v>712.77800000000002</v>
+      </c>
+      <c r="V67">
+        <v>678.2</v>
+      </c>
+      <c r="W67">
+        <v>-277.2</v>
+      </c>
+      <c r="X67">
+        <v>157.9</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>3.8</v>
+      </c>
+      <c r="AA67">
+        <v>316.10000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>367</v>
+      </c>
+      <c r="D68">
+        <v>1662.5</v>
+      </c>
+      <c r="E68">
+        <v>453.89100000000002</v>
+      </c>
+      <c r="F68">
+        <v>1145.3</v>
+      </c>
+      <c r="G68">
+        <v>1801.7470000000001</v>
+      </c>
+      <c r="H68">
+        <v>32138.21</v>
+      </c>
+      <c r="I68">
+        <v>102.726</v>
+      </c>
+      <c r="J68">
+        <v>17509.937000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3278.9110000000001</v>
+      </c>
+      <c r="O68">
+        <v>23937.227999999999</v>
+      </c>
+      <c r="P68">
+        <v>19241.972000000002</v>
+      </c>
+      <c r="Q68">
+        <v>55</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8200.982</v>
+      </c>
+      <c r="U68">
+        <v>770.024</v>
+      </c>
+      <c r="V68">
+        <v>794.6</v>
+      </c>
+      <c r="W68">
+        <v>-291.3</v>
+      </c>
+      <c r="X68">
+        <v>-448.5</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>3.4</v>
+      </c>
+      <c r="AA68">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>317.3</v>
+      </c>
+      <c r="D69">
+        <v>1680.7</v>
+      </c>
+      <c r="E69">
+        <v>617.76900000000001</v>
+      </c>
+      <c r="F69">
+        <v>1160.9000000000001</v>
+      </c>
+      <c r="G69">
+        <v>1962.5419999999999</v>
+      </c>
+      <c r="H69">
+        <v>32319.326000000001</v>
+      </c>
+      <c r="I69">
+        <v>119.745</v>
+      </c>
+      <c r="J69">
+        <v>18581.381000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2260.2359999999999</v>
+      </c>
+      <c r="O69">
+        <v>24062.92</v>
+      </c>
+      <c r="P69">
+        <v>19268.762999999999</v>
+      </c>
+      <c r="Q69">
+        <v>41.4</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8256.4060000000009</v>
+      </c>
+      <c r="U69">
+        <v>799.46699999999998</v>
+      </c>
+      <c r="V69">
+        <v>663.8</v>
+      </c>
+      <c r="W69">
+        <v>-293.5</v>
+      </c>
+      <c r="X69">
+        <v>-323.3</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>2.9</v>
+      </c>
+      <c r="AA69">
+        <v>317.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>238.5</v>
+      </c>
+      <c r="D70">
+        <v>1704.5</v>
+      </c>
+      <c r="E70">
+        <v>621.5</v>
+      </c>
+      <c r="F70">
+        <v>1177.5999999999999</v>
+      </c>
+      <c r="G70">
+        <v>2037.1</v>
+      </c>
+      <c r="H70">
+        <v>33214.300000000003</v>
+      </c>
+      <c r="I70">
+        <v>142.9</v>
+      </c>
+      <c r="J70">
+        <v>19264.8</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2512.1</v>
+      </c>
+      <c r="O70">
+        <v>25260</v>
+      </c>
+      <c r="P70">
+        <v>20205.099999999999</v>
+      </c>
+      <c r="Q70">
+        <v>0.2</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>4752</v>
+      </c>
+      <c r="T70">
+        <v>7954.3</v>
+      </c>
+      <c r="U70">
+        <v>802.1</v>
+      </c>
+      <c r="V70">
+        <v>789</v>
+      </c>
+      <c r="W70">
+        <v>-302.39999999999998</v>
+      </c>
+      <c r="X70">
+        <v>500.9</v>
+      </c>
+      <c r="Y70">
+        <v>165.5</v>
+      </c>
+      <c r="Z70">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA70">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>285.2</v>
+      </c>
+      <c r="D71">
+        <v>1741.8</v>
+      </c>
+      <c r="E71">
+        <v>668.6</v>
+      </c>
+      <c r="F71">
+        <v>1221.9000000000001</v>
+      </c>
+      <c r="G71">
+        <v>2408</v>
+      </c>
+      <c r="H71">
+        <v>34372.699999999997</v>
+      </c>
+      <c r="I71">
+        <v>118.7</v>
+      </c>
+      <c r="J71">
+        <v>18568.8</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2584.9</v>
+      </c>
+      <c r="N71">
+        <v>4544.7</v>
+      </c>
+      <c r="O71">
+        <v>26366.2</v>
+      </c>
+      <c r="P71">
+        <v>21372</v>
+      </c>
+      <c r="Q71">
+        <v>324</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8006.5</v>
+      </c>
+      <c r="U71">
+        <v>1125.4000000000001</v>
+      </c>
+      <c r="V71">
+        <v>791.8</v>
+      </c>
+      <c r="W71">
+        <v>-323.2</v>
+      </c>
+      <c r="X71">
+        <v>817.3</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-394.1</v>
+      </c>
+      <c r="AA71">
+        <v>285.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>306.7</v>
+      </c>
+      <c r="D72">
+        <v>1780.9</v>
+      </c>
+      <c r="E72">
+        <v>659.5</v>
+      </c>
+      <c r="F72">
+        <v>1220.5999999999999</v>
+      </c>
+      <c r="G72">
+        <v>2046.3</v>
+      </c>
+      <c r="H72">
+        <v>33205.699999999997</v>
+      </c>
+      <c r="I72">
+        <v>137</v>
+      </c>
+      <c r="J72">
+        <v>18322</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4562.8999999999996</v>
+      </c>
+      <c r="O72">
+        <v>26069.8</v>
+      </c>
+      <c r="P72">
+        <v>21113.8</v>
+      </c>
+      <c r="Q72">
+        <v>-308.8</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7135.9</v>
+      </c>
+      <c r="U72">
+        <v>834.5</v>
+      </c>
+      <c r="V72">
+        <v>940</v>
+      </c>
+      <c r="W72">
+        <v>-331.3</v>
+      </c>
+      <c r="X72">
+        <v>-628.9</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>335.8</v>
+      </c>
+      <c r="AA72">
+        <v>306.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>366.9</v>
+      </c>
+      <c r="D73">
+        <v>1785.5</v>
+      </c>
+      <c r="E73">
+        <v>660.9</v>
+      </c>
+      <c r="F73">
+        <v>1228.8</v>
+      </c>
+      <c r="G73">
+        <v>2368.8000000000002</v>
+      </c>
+      <c r="H73">
+        <v>33077.199999999997</v>
+      </c>
+      <c r="I73">
+        <v>122.9</v>
+      </c>
+      <c r="J73">
+        <v>18422.900000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4579.7</v>
+      </c>
+      <c r="O73">
+        <v>26193.7</v>
+      </c>
+      <c r="P73">
+        <v>21264.2</v>
+      </c>
+      <c r="Q73">
+        <v>323.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6883.5</v>
+      </c>
+      <c r="U73">
+        <v>1026.5</v>
+      </c>
+      <c r="V73">
+        <v>753.3</v>
+      </c>
+      <c r="W73">
+        <v>-339.5</v>
+      </c>
+      <c r="X73">
+        <v>-222.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>83.1</v>
+      </c>
+      <c r="AA73">
+        <v>366.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="D74">
+        <v>2131.9</v>
+      </c>
+      <c r="E74">
+        <v>585.1</v>
+      </c>
+      <c r="F74">
+        <v>1591</v>
+      </c>
+      <c r="G74">
+        <v>2385.1</v>
+      </c>
+      <c r="H74">
+        <v>33010.400000000001</v>
+      </c>
+      <c r="I74">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="J74">
+        <v>18266.3</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4689.8999999999996</v>
+      </c>
+      <c r="O74">
+        <v>26106</v>
+      </c>
+      <c r="P74">
+        <v>21159.9</v>
+      </c>
+      <c r="Q74">
+        <v>11.6</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>5026</v>
+      </c>
+      <c r="T74">
+        <v>6904.4</v>
+      </c>
+      <c r="U74">
+        <v>1208.7</v>
+      </c>
+      <c r="V74">
+        <v>1263.2</v>
+      </c>
+      <c r="W74">
+        <v>-348.4</v>
+      </c>
+      <c r="X74">
+        <v>-573.4</v>
+      </c>
+      <c r="Y74">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="Z74">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AA74">
+        <v>277.60000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>397.4</v>
+      </c>
+      <c r="D75">
+        <v>1813.4</v>
+      </c>
+      <c r="E75">
+        <v>604.29999999999995</v>
+      </c>
+      <c r="F75">
+        <v>1270</v>
+      </c>
+      <c r="G75">
+        <v>2043.9</v>
+      </c>
+      <c r="H75">
+        <v>38926.800000000003</v>
+      </c>
+      <c r="I75">
+        <v>130</v>
+      </c>
+      <c r="J75">
+        <v>19085.3</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-4025.9</v>
+      </c>
+      <c r="N75">
+        <v>4411.8999999999996</v>
+      </c>
+      <c r="O75">
+        <v>32437.5</v>
+      </c>
+      <c r="P75">
+        <v>28018.799999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-205.2</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6489.3</v>
+      </c>
+      <c r="U75">
+        <v>1004.8</v>
+      </c>
+      <c r="V75">
+        <v>785.1</v>
+      </c>
+      <c r="W75">
+        <v>-377.1</v>
+      </c>
+      <c r="X75">
+        <v>-650.4</v>
+      </c>
+      <c r="Y75">
+        <v>6337.9</v>
+      </c>
+      <c r="Z75">
+        <v>-6.6</v>
+      </c>
+      <c r="AA75">
+        <v>397.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>429.1</v>
+      </c>
+      <c r="D76">
+        <v>1889.6</v>
+      </c>
+      <c r="E76">
+        <v>579.4</v>
+      </c>
+      <c r="F76">
+        <v>1326.3</v>
+      </c>
+      <c r="G76">
+        <v>2232.4</v>
+      </c>
+      <c r="H76">
+        <v>39072.699999999997</v>
+      </c>
+      <c r="I76">
+        <v>144.9</v>
+      </c>
+      <c r="J76">
+        <v>18593.599999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4821.6000000000004</v>
+      </c>
+      <c r="O76">
+        <v>32439.4</v>
+      </c>
+      <c r="P76">
+        <v>27890.400000000001</v>
+      </c>
+      <c r="Q76">
+        <v>186.3</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6633.3</v>
+      </c>
+      <c r="U76">
+        <v>1192.2</v>
+      </c>
+      <c r="V76">
+        <v>1036.5999999999999</v>
+      </c>
+      <c r="W76">
+        <v>-398</v>
+      </c>
+      <c r="X76">
+        <v>-597</v>
+      </c>
+      <c r="Y76">
+        <v>6357.7</v>
+      </c>
+      <c r="Z76">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>429.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>498.6</v>
+      </c>
+      <c r="D77">
+        <v>1953.6</v>
+      </c>
+      <c r="E77">
+        <v>565.70000000000005</v>
+      </c>
+      <c r="F77">
+        <v>1393.7</v>
+      </c>
+      <c r="G77">
+        <v>2362</v>
+      </c>
+      <c r="H77">
+        <v>39307.199999999997</v>
+      </c>
+      <c r="I77">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="J77">
+        <v>19016.900000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4787.3999999999996</v>
+      </c>
+      <c r="O77">
+        <v>32937.300000000003</v>
+      </c>
+      <c r="P77">
+        <v>28406.7</v>
+      </c>
+      <c r="Q77">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6369.9</v>
+      </c>
+      <c r="U77">
+        <v>1352.6</v>
+      </c>
+      <c r="V77">
+        <v>937.2</v>
+      </c>
+      <c r="W77">
+        <v>-407.1</v>
+      </c>
+      <c r="X77">
+        <v>72.8</v>
+      </c>
+      <c r="Y77">
+        <v>6471.1</v>
+      </c>
+      <c r="Z77">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AA77">
+        <v>498.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>562.70000000000005</v>
+      </c>
+      <c r="D78">
+        <v>1923.7</v>
+      </c>
+      <c r="E78">
+        <v>604.5</v>
+      </c>
+      <c r="F78">
+        <v>1373.5</v>
+      </c>
+      <c r="G78">
+        <v>2553.8000000000002</v>
+      </c>
+      <c r="H78">
+        <v>42801.599999999999</v>
+      </c>
+      <c r="I78">
+        <v>148.1</v>
+      </c>
+      <c r="J78">
+        <v>21103.200000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>5487.7</v>
+      </c>
+      <c r="O78">
+        <v>36214.699999999997</v>
+      </c>
+      <c r="P78">
+        <v>31060.3</v>
+      </c>
+      <c r="Q78">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>5454</v>
+      </c>
+      <c r="T78">
+        <v>6586.9</v>
+      </c>
+      <c r="U78">
+        <v>1501.2</v>
+      </c>
+      <c r="V78">
+        <v>993.7</v>
+      </c>
+      <c r="W78">
+        <v>-420.8</v>
+      </c>
+      <c r="X78">
+        <v>1696.3</v>
+      </c>
+      <c r="Y78">
+        <v>6534.4</v>
+      </c>
+      <c r="Z78">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA78">
+        <v>562.70000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>415</v>
+      </c>
+      <c r="D79">
+        <v>1993.1</v>
+      </c>
+      <c r="E79">
+        <v>725.7</v>
+      </c>
+      <c r="F79">
+        <v>1441.1</v>
+      </c>
+      <c r="G79">
+        <v>2504.9</v>
+      </c>
+      <c r="H79">
+        <v>40789.1</v>
+      </c>
+      <c r="I79">
+        <v>120.6</v>
+      </c>
+      <c r="J79">
+        <v>21911.8</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-4384.7</v>
+      </c>
+      <c r="N79">
+        <v>5154.3999999999996</v>
+      </c>
+      <c r="O79">
+        <v>36183.1</v>
+      </c>
+      <c r="P79">
+        <v>31192</v>
+      </c>
+      <c r="Q79">
+        <v>-177.7</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4606</v>
+      </c>
+      <c r="U79">
+        <v>1326</v>
+      </c>
+      <c r="V79">
+        <v>800</v>
+      </c>
+      <c r="W79">
+        <v>-454.9</v>
+      </c>
+      <c r="X79">
+        <v>-606</v>
+      </c>
+      <c r="Y79">
+        <v>6163.4</v>
+      </c>
+      <c r="Z79">
+        <v>5.8</v>
+      </c>
+      <c r="AA79">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>446.1</v>
+      </c>
+      <c r="D80">
+        <v>1913</v>
+      </c>
+      <c r="E80">
+        <v>684</v>
+      </c>
+      <c r="F80">
+        <v>1373</v>
+      </c>
+      <c r="G80">
+        <v>3226.6</v>
+      </c>
+      <c r="H80">
+        <v>41515.9</v>
+      </c>
+      <c r="I80">
+        <v>108.2</v>
+      </c>
+      <c r="J80">
+        <v>21824.2</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5944.9</v>
+      </c>
+      <c r="O80">
+        <v>36913.300000000003</v>
+      </c>
+      <c r="P80">
+        <v>31796.3</v>
+      </c>
+      <c r="Q80">
+        <v>705.8</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4602.6000000000004</v>
+      </c>
+      <c r="U80">
+        <v>2038.1</v>
+      </c>
+      <c r="V80">
+        <v>988.8</v>
+      </c>
+      <c r="W80">
+        <v>-478.9</v>
+      </c>
+      <c r="X80">
+        <v>99.2</v>
+      </c>
+      <c r="Y80">
+        <v>6111.8</v>
+      </c>
+      <c r="Z80">
+        <v>3.5</v>
+      </c>
+      <c r="AA80">
+        <v>446.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>464.4</v>
+      </c>
+      <c r="D81">
+        <v>2012.9</v>
+      </c>
+      <c r="E81">
+        <v>686.9</v>
+      </c>
+      <c r="F81">
+        <v>1450.3</v>
+      </c>
+      <c r="G81">
+        <v>2852.5</v>
+      </c>
+      <c r="H81">
+        <v>41462.199999999997</v>
+      </c>
+      <c r="I81">
+        <v>117</v>
+      </c>
+      <c r="J81">
+        <v>23985.200000000001</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3266.1</v>
+      </c>
+      <c r="O81">
+        <v>36718.199999999997</v>
+      </c>
+      <c r="P81">
+        <v>31694</v>
+      </c>
+      <c r="Q81">
+        <v>-375.9</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4744</v>
+      </c>
+      <c r="U81">
+        <v>1626</v>
+      </c>
+      <c r="V81">
+        <v>960.3</v>
+      </c>
+      <c r="W81">
+        <v>-488</v>
+      </c>
+      <c r="X81">
+        <v>-1012.6</v>
+      </c>
+      <c r="Y81">
+        <v>6450.2</v>
+      </c>
+      <c r="Z81">
+        <v>5.4</v>
+      </c>
+      <c r="AA81">
+        <v>464.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>365.1</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2122.5</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>688.5</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1549.9</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2905.6</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>47233.5</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>139.1</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>28474.7</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3655.5</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>42453</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>36711.800000000003</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>131.19999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5618</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4780.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1746.3</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1132.3</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-506.4</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>2734.7</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>6907.4</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>365.1</v>
       </c>
     </row>
